--- a/CA.xlsx
+++ b/CA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="333">
   <si>
     <t>date</t>
   </si>
@@ -136,6 +136,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>6/2/2020 00:00</t>
+  </si>
+  <si>
     <t>6/1/2020 00:00</t>
   </si>
   <si>
@@ -334,6 +337,9 @@
     <t>3/12/2020 10:00</t>
   </si>
   <si>
+    <t>2020-06-02T00:00:00Z</t>
+  </si>
+  <si>
     <t>2020-06-01T00:00:00Z</t>
   </si>
   <si>
@@ -532,6 +538,9 @@
     <t>2020-03-12T10:00:00Z</t>
   </si>
   <si>
+    <t>06/01 20:00</t>
+  </si>
+  <si>
     <t>05/31 20:00</t>
   </si>
   <si>
@@ -731,6 +740,9 @@
   </si>
   <si>
     <t>06</t>
+  </si>
+  <si>
+    <t>9c03c1926787907836d6c35b13c8e44c97dc26b7</t>
   </si>
   <si>
     <t>ccc38c3a84cfedc4cb1a73c898449694576ad064</t>
@@ -1362,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,25 +1498,25 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>113006</v>
+        <v>115310</v>
       </c>
       <c r="E2">
-        <v>1899577</v>
+        <v>1956281</v>
       </c>
       <c r="G2">
-        <v>4258</v>
+        <v>4393</v>
       </c>
       <c r="I2">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="N2" t="s">
         <v>39</v>
@@ -1513,46 +1525,46 @@
         <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="R2">
-        <v>4251</v>
+        <v>4286</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V2">
-        <v>2423</v>
+        <v>2304</v>
       </c>
       <c r="W2">
-        <v>65312</v>
+        <v>56704</v>
       </c>
       <c r="X2">
-        <v>2012583</v>
+        <v>2071591</v>
       </c>
       <c r="Y2">
-        <v>2012583</v>
+        <v>2071591</v>
       </c>
       <c r="Z2">
-        <v>67735</v>
+        <v>59008</v>
       </c>
       <c r="AA2">
-        <v>2012583</v>
+        <v>2071591</v>
       </c>
       <c r="AB2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1570,36 +1582,36 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.03761747163867405</v>
+        <v>0.03716936952562657</v>
       </c>
       <c r="AL2">
-        <v>0.0357717575847051</v>
+        <v>0.03904555314533623</v>
       </c>
       <c r="AM2">
-        <v>2423</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="1">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>110583</v>
+        <v>113006</v>
       </c>
       <c r="E3">
-        <v>1834265</v>
+        <v>1899577</v>
       </c>
       <c r="G3">
-        <v>4331</v>
+        <v>4258</v>
       </c>
       <c r="I3">
-        <v>1324</v>
+        <v>1273</v>
       </c>
       <c r="N3" t="s">
         <v>39</v>
@@ -1608,46 +1620,46 @@
         <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R3">
-        <v>4213</v>
+        <v>4251</v>
       </c>
       <c r="T3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V3">
-        <v>3705</v>
+        <v>2423</v>
       </c>
       <c r="W3">
-        <v>52548</v>
+        <v>65312</v>
       </c>
       <c r="X3">
-        <v>1944848</v>
+        <v>2012583</v>
       </c>
       <c r="Y3">
-        <v>1944848</v>
+        <v>2012583</v>
       </c>
       <c r="Z3">
-        <v>56253</v>
+        <v>67735</v>
       </c>
       <c r="AA3">
-        <v>1944848</v>
+        <v>2012583</v>
       </c>
       <c r="AB3">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1665,84 +1677,84 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.03809808017507212</v>
+        <v>0.03761747163867405</v>
       </c>
       <c r="AL3">
-        <v>0.06586315396512187</v>
+        <v>0.0357717575847051</v>
       </c>
       <c r="AM3">
-        <v>3705</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="1">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>106878</v>
+        <v>110583</v>
       </c>
       <c r="E4">
-        <v>1781717</v>
+        <v>1834265</v>
       </c>
       <c r="G4">
-        <v>4215</v>
+        <v>4331</v>
       </c>
       <c r="I4">
-        <v>1273</v>
+        <v>1324</v>
       </c>
       <c r="N4" t="s">
         <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="R4">
-        <v>4156</v>
+        <v>4213</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V4">
-        <v>2992</v>
+        <v>3705</v>
       </c>
       <c r="W4">
-        <v>50125</v>
+        <v>52548</v>
       </c>
       <c r="X4">
-        <v>1888595</v>
+        <v>1944848</v>
       </c>
       <c r="Y4">
-        <v>1888595</v>
+        <v>1944848</v>
       </c>
       <c r="Z4">
-        <v>53117</v>
+        <v>56253</v>
       </c>
       <c r="AA4">
-        <v>1888595</v>
+        <v>1944848</v>
       </c>
       <c r="AB4">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1760,36 +1772,36 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.03888545818596905</v>
+        <v>0.03809808017507212</v>
       </c>
       <c r="AL4">
-        <v>0.05632848240676243</v>
+        <v>0.06586315396512187</v>
       </c>
       <c r="AM4">
-        <v>2992</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="1">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="B5" s="2">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>103886</v>
+        <v>106878</v>
       </c>
       <c r="E5">
-        <v>1731592</v>
+        <v>1781717</v>
       </c>
       <c r="G5">
-        <v>4414</v>
+        <v>4215</v>
       </c>
       <c r="I5">
-        <v>1328</v>
+        <v>1273</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
@@ -1798,46 +1810,46 @@
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R5">
-        <v>4068</v>
+        <v>4156</v>
       </c>
       <c r="T5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V5">
-        <v>2189</v>
+        <v>2992</v>
       </c>
       <c r="W5">
-        <v>42730</v>
+        <v>50125</v>
       </c>
       <c r="X5">
-        <v>1835478</v>
+        <v>1888595</v>
       </c>
       <c r="Y5">
-        <v>1835478</v>
+        <v>1888595</v>
       </c>
       <c r="Z5">
-        <v>44919</v>
+        <v>53117</v>
       </c>
       <c r="AA5">
-        <v>1835478</v>
+        <v>1888595</v>
       </c>
       <c r="AB5">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1855,36 +1867,36 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.03915830814546715</v>
+        <v>0.03888545818596905</v>
       </c>
       <c r="AL5">
-        <v>0.04873216233665042</v>
+        <v>0.05632848240676243</v>
       </c>
       <c r="AM5">
-        <v>2189</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="1">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="B6" s="2">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>101697</v>
+        <v>103886</v>
       </c>
       <c r="E6">
-        <v>1688862</v>
+        <v>1731592</v>
       </c>
       <c r="G6">
-        <v>4529</v>
+        <v>4414</v>
       </c>
       <c r="I6">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="N6" t="s">
         <v>39</v>
@@ -1893,46 +1905,46 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R6">
-        <v>3973</v>
+        <v>4068</v>
       </c>
       <c r="T6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V6">
-        <v>2717</v>
+        <v>2189</v>
       </c>
       <c r="W6">
-        <v>50948</v>
+        <v>42730</v>
       </c>
       <c r="X6">
-        <v>1790559</v>
+        <v>1835478</v>
       </c>
       <c r="Y6">
-        <v>1790559</v>
+        <v>1835478</v>
       </c>
       <c r="Z6">
-        <v>53665</v>
+        <v>44919</v>
       </c>
       <c r="AA6">
-        <v>1790559</v>
+        <v>1835478</v>
       </c>
       <c r="AB6">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1950,36 +1962,36 @@
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.03906703245916792</v>
+        <v>0.03915830814546715</v>
       </c>
       <c r="AL6">
-        <v>0.05062890151868071</v>
+        <v>0.04873216233665042</v>
       </c>
       <c r="AM6">
-        <v>2717</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="1">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="B7" s="2">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7">
-        <v>98980</v>
+        <v>101697</v>
       </c>
       <c r="E7">
-        <v>1637914</v>
+        <v>1688862</v>
       </c>
       <c r="G7">
-        <v>4544</v>
+        <v>4529</v>
       </c>
       <c r="I7">
-        <v>1407</v>
+        <v>1325</v>
       </c>
       <c r="N7" t="s">
         <v>39</v>
@@ -1988,46 +2000,46 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="R7">
-        <v>3884</v>
+        <v>3973</v>
       </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V7">
-        <v>2247</v>
+        <v>2717</v>
       </c>
       <c r="W7">
-        <v>38251</v>
+        <v>50948</v>
       </c>
       <c r="X7">
-        <v>1736894</v>
+        <v>1790559</v>
       </c>
       <c r="Y7">
-        <v>1736894</v>
+        <v>1790559</v>
       </c>
       <c r="Z7">
-        <v>40498</v>
+        <v>53665</v>
       </c>
       <c r="AA7">
-        <v>1736894</v>
+        <v>1790559</v>
       </c>
       <c r="AB7">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2045,36 +2057,36 @@
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.03924025055566781</v>
+        <v>0.03906703245916792</v>
       </c>
       <c r="AL7">
-        <v>0.05548422144303422</v>
+        <v>0.05062890151868071</v>
       </c>
       <c r="AM7">
-        <v>2247</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="1">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="B8" s="2">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8">
-        <v>96733</v>
+        <v>98980</v>
       </c>
       <c r="E8">
-        <v>1599663</v>
+        <v>1637914</v>
       </c>
       <c r="G8">
-        <v>4404</v>
+        <v>4544</v>
       </c>
       <c r="I8">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="N8" t="s">
         <v>39</v>
@@ -2083,46 +2095,46 @@
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="R8">
-        <v>3814</v>
+        <v>3884</v>
       </c>
       <c r="T8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V8">
-        <v>2175</v>
+        <v>2247</v>
       </c>
       <c r="W8">
-        <v>50119</v>
+        <v>38251</v>
       </c>
       <c r="X8">
-        <v>1696396</v>
+        <v>1736894</v>
       </c>
       <c r="Y8">
-        <v>1696396</v>
+        <v>1736894</v>
       </c>
       <c r="Z8">
-        <v>52294</v>
+        <v>40498</v>
       </c>
       <c r="AA8">
-        <v>1696396</v>
+        <v>1736894</v>
       </c>
       <c r="AB8">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2140,36 +2152,36 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.0394281165682859</v>
+        <v>0.03924025055566781</v>
       </c>
       <c r="AL8">
-        <v>0.04159176961028034</v>
+        <v>0.05548422144303422</v>
       </c>
       <c r="AM8">
-        <v>2175</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="1">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="B9" s="2">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9">
-        <v>94558</v>
+        <v>96733</v>
       </c>
       <c r="E9">
-        <v>1549544</v>
+        <v>1599663</v>
       </c>
       <c r="G9">
-        <v>4306</v>
+        <v>4404</v>
       </c>
       <c r="I9">
-        <v>1301</v>
+        <v>1392</v>
       </c>
       <c r="N9" t="s">
         <v>39</v>
@@ -2178,46 +2190,46 @@
         <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R9">
-        <v>3795</v>
+        <v>3814</v>
       </c>
       <c r="T9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V9">
-        <v>1848</v>
+        <v>2175</v>
       </c>
       <c r="W9">
-        <v>59509</v>
+        <v>50119</v>
       </c>
       <c r="X9">
-        <v>1644102</v>
+        <v>1696396</v>
       </c>
       <c r="Y9">
-        <v>1644102</v>
+        <v>1696396</v>
       </c>
       <c r="Z9">
-        <v>61357</v>
+        <v>52294</v>
       </c>
       <c r="AA9">
-        <v>1644102</v>
+        <v>1696396</v>
       </c>
       <c r="AB9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2235,36 +2247,36 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.04013409759089659</v>
+        <v>0.0394281165682859</v>
       </c>
       <c r="AL9">
-        <v>0.03011881284938964</v>
+        <v>0.04159176961028034</v>
       </c>
       <c r="AM9">
-        <v>1848</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="1">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="B10" s="2">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10">
-        <v>92710</v>
+        <v>94558</v>
       </c>
       <c r="E10">
-        <v>1490035</v>
+        <v>1549544</v>
       </c>
       <c r="G10">
-        <v>4300</v>
+        <v>4306</v>
       </c>
       <c r="I10">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="N10" t="s">
         <v>39</v>
@@ -2273,46 +2285,46 @@
         <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R10">
-        <v>3774</v>
+        <v>3795</v>
       </c>
       <c r="T10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V10">
-        <v>2079</v>
+        <v>1848</v>
       </c>
       <c r="W10">
-        <v>65360</v>
+        <v>59509</v>
       </c>
       <c r="X10">
-        <v>1582745</v>
+        <v>1644102</v>
       </c>
       <c r="Y10">
-        <v>1582745</v>
+        <v>1644102</v>
       </c>
       <c r="Z10">
-        <v>67439</v>
+        <v>61357</v>
       </c>
       <c r="AA10">
-        <v>1582745</v>
+        <v>1644102</v>
       </c>
       <c r="AB10">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2330,36 +2342,36 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.04070758278502858</v>
+        <v>0.04013409759089659</v>
       </c>
       <c r="AL10">
-        <v>0.03082785925058201</v>
+        <v>0.03011881284938964</v>
       </c>
       <c r="AM10">
-        <v>2079</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="1">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="B11" s="2">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11">
-        <v>90631</v>
+        <v>92710</v>
       </c>
       <c r="E11">
-        <v>1424675</v>
+        <v>1490035</v>
       </c>
       <c r="G11">
-        <v>4342</v>
+        <v>4300</v>
       </c>
       <c r="I11">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="N11" t="s">
         <v>39</v>
@@ -2368,46 +2380,46 @@
         <v>48</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R11">
-        <v>3708</v>
+        <v>3774</v>
       </c>
       <c r="T11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V11">
-        <v>2187</v>
+        <v>2079</v>
       </c>
       <c r="W11">
-        <v>46346</v>
+        <v>65360</v>
       </c>
       <c r="X11">
-        <v>1515306</v>
+        <v>1582745</v>
       </c>
       <c r="Y11">
-        <v>1515306</v>
+        <v>1582745</v>
       </c>
       <c r="Z11">
-        <v>48533</v>
+        <v>67439</v>
       </c>
       <c r="AA11">
-        <v>1515306</v>
+        <v>1582745</v>
       </c>
       <c r="AB11">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2425,36 +2437,36 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0.04091315333605499</v>
+        <v>0.04070758278502858</v>
       </c>
       <c r="AL11">
-        <v>0.04506212267941401</v>
+        <v>0.03082785925058201</v>
       </c>
       <c r="AM11">
-        <v>2187</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="1">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="B12" s="2">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12">
-        <v>88444</v>
+        <v>90631</v>
       </c>
       <c r="E12">
-        <v>1378329</v>
+        <v>1424675</v>
       </c>
       <c r="G12">
-        <v>4762</v>
+        <v>4342</v>
       </c>
       <c r="I12">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="N12" t="s">
         <v>39</v>
@@ -2463,46 +2475,46 @@
         <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R12">
-        <v>3630</v>
+        <v>3708</v>
       </c>
       <c r="T12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V12">
-        <v>2247</v>
+        <v>2187</v>
       </c>
       <c r="W12">
-        <v>43399</v>
+        <v>46346</v>
       </c>
       <c r="X12">
-        <v>1466773</v>
+        <v>1515306</v>
       </c>
       <c r="Y12">
-        <v>1466773</v>
+        <v>1515306</v>
       </c>
       <c r="Z12">
-        <v>45646</v>
+        <v>48533</v>
       </c>
       <c r="AA12">
-        <v>1466773</v>
+        <v>1515306</v>
       </c>
       <c r="AB12">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2520,84 +2532,84 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>0.04104291981366741</v>
+        <v>0.04091315333605499</v>
       </c>
       <c r="AL12">
-        <v>0.04922665731937081</v>
+        <v>0.04506212267941401</v>
       </c>
       <c r="AM12">
-        <v>2247</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="1">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="B13" s="2">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
       <c r="D13">
-        <v>86197</v>
+        <v>88444</v>
       </c>
       <c r="E13">
-        <v>1334930</v>
+        <v>1378329</v>
       </c>
       <c r="G13">
-        <v>4735</v>
+        <v>4762</v>
       </c>
       <c r="I13">
-        <v>1310</v>
+        <v>1317</v>
       </c>
       <c r="N13" t="s">
         <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="R13">
-        <v>3542</v>
+        <v>3630</v>
       </c>
       <c r="T13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V13">
-        <v>2140</v>
+        <v>2247</v>
       </c>
       <c r="W13">
-        <v>38867</v>
+        <v>43399</v>
       </c>
       <c r="X13">
-        <v>1421127</v>
+        <v>1466773</v>
       </c>
       <c r="Y13">
-        <v>1421127</v>
+        <v>1466773</v>
       </c>
       <c r="Z13">
-        <v>41007</v>
+        <v>45646</v>
       </c>
       <c r="AA13">
-        <v>1421127</v>
+        <v>1466773</v>
       </c>
       <c r="AB13">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -2615,36 +2627,36 @@
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>0.04109191735211203</v>
+        <v>0.04104291981366741</v>
       </c>
       <c r="AL13">
-        <v>0.05218621211012754</v>
+        <v>0.04922665731937081</v>
       </c>
       <c r="AM13">
-        <v>2140</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="1">
-        <v>722</v>
+        <v>677</v>
       </c>
       <c r="B14" s="2">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14">
-        <v>84057</v>
+        <v>86197</v>
       </c>
       <c r="E14">
-        <v>1296063</v>
+        <v>1334930</v>
       </c>
       <c r="G14">
-        <v>4681</v>
+        <v>4735</v>
       </c>
       <c r="I14">
-        <v>1345</v>
+        <v>1310</v>
       </c>
       <c r="N14" t="s">
         <v>39</v>
@@ -2653,46 +2665,46 @@
         <v>50</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R14">
-        <v>3436</v>
+        <v>3542</v>
       </c>
       <c r="T14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V14">
-        <v>2262</v>
+        <v>2140</v>
       </c>
       <c r="W14">
-        <v>38542</v>
+        <v>38867</v>
       </c>
       <c r="X14">
-        <v>1380120</v>
+        <v>1421127</v>
       </c>
       <c r="Y14">
-        <v>1380120</v>
+        <v>1421127</v>
       </c>
       <c r="Z14">
-        <v>40804</v>
+        <v>41007</v>
       </c>
       <c r="AA14">
-        <v>1380120</v>
+        <v>1421127</v>
       </c>
       <c r="AB14">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2710,36 +2722,36 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0.04087702392424188</v>
+        <v>0.04109191735211203</v>
       </c>
       <c r="AL14">
-        <v>0.05543574159396138</v>
+        <v>0.05218621211012754</v>
       </c>
       <c r="AM14">
-        <v>2262</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="1">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="B15" s="2">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15">
-        <v>81795</v>
+        <v>84057</v>
       </c>
       <c r="E15">
-        <v>1257521</v>
+        <v>1296063</v>
       </c>
       <c r="G15">
-        <v>4363</v>
+        <v>4681</v>
       </c>
       <c r="I15">
-        <v>1307</v>
+        <v>1345</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -2748,46 +2760,46 @@
         <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R15">
-        <v>3334</v>
+        <v>3436</v>
       </c>
       <c r="T15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V15">
-        <v>1365</v>
+        <v>2262</v>
       </c>
       <c r="W15">
-        <v>45279</v>
+        <v>38542</v>
       </c>
       <c r="X15">
-        <v>1339316</v>
+        <v>1380120</v>
       </c>
       <c r="Y15">
-        <v>1339316</v>
+        <v>1380120</v>
       </c>
       <c r="Z15">
-        <v>46644</v>
+        <v>40804</v>
       </c>
       <c r="AA15">
-        <v>1339316</v>
+        <v>1380120</v>
       </c>
       <c r="AB15">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2805,36 +2817,36 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>0.04076043767956476</v>
+        <v>0.04087702392424188</v>
       </c>
       <c r="AL15">
-        <v>0.02926421404682274</v>
+        <v>0.05543574159396138</v>
       </c>
       <c r="AM15">
-        <v>1365</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="1">
-        <v>834</v>
+        <v>789</v>
       </c>
       <c r="B16" s="2">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
       </c>
       <c r="D16">
-        <v>80430</v>
+        <v>81795</v>
       </c>
       <c r="E16">
-        <v>1212242</v>
+        <v>1257521</v>
       </c>
       <c r="G16">
-        <v>4391</v>
+        <v>4363</v>
       </c>
       <c r="I16">
-        <v>1325</v>
+        <v>1307</v>
       </c>
       <c r="N16" t="s">
         <v>39</v>
@@ -2843,46 +2855,46 @@
         <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R16">
-        <v>3302</v>
+        <v>3334</v>
       </c>
       <c r="T16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U16" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V16">
-        <v>1591</v>
+        <v>1365</v>
       </c>
       <c r="W16">
-        <v>55838</v>
+        <v>45279</v>
       </c>
       <c r="X16">
-        <v>1292672</v>
+        <v>1339316</v>
       </c>
       <c r="Y16">
-        <v>1292672</v>
+        <v>1339316</v>
       </c>
       <c r="Z16">
-        <v>57429</v>
+        <v>46644</v>
       </c>
       <c r="AA16">
-        <v>1292672</v>
+        <v>1339316</v>
       </c>
       <c r="AB16">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2900,84 +2912,84 @@
         <v>0</v>
       </c>
       <c r="AK16">
-        <v>0.04105433296033818</v>
+        <v>0.04076043767956476</v>
       </c>
       <c r="AL16">
-        <v>0.02770377335492521</v>
+        <v>0.02926421404682274</v>
       </c>
       <c r="AM16">
-        <v>1591</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17" s="1">
-        <v>890</v>
+        <v>845</v>
       </c>
       <c r="B17" s="2">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17">
-        <v>78839</v>
+        <v>80430</v>
       </c>
       <c r="E17">
-        <v>1156404</v>
+        <v>1212242</v>
       </c>
       <c r="G17">
-        <v>4291</v>
+        <v>4391</v>
       </c>
       <c r="I17">
-        <v>1293</v>
+        <v>1325</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="R17">
-        <v>3261</v>
+        <v>3302</v>
       </c>
       <c r="T17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V17">
-        <v>2046</v>
+        <v>1591</v>
       </c>
       <c r="W17">
-        <v>54071</v>
+        <v>55838</v>
       </c>
       <c r="X17">
-        <v>1235243</v>
+        <v>1292672</v>
       </c>
       <c r="Y17">
-        <v>1235243</v>
+        <v>1292672</v>
       </c>
       <c r="Z17">
-        <v>56117</v>
+        <v>57429</v>
       </c>
       <c r="AA17">
-        <v>1235243</v>
+        <v>1292672</v>
       </c>
       <c r="AB17">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2995,36 +3007,36 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>0.04136277730564822</v>
+        <v>0.04105433296033818</v>
       </c>
       <c r="AL17">
-        <v>0.03645953988987295</v>
+        <v>0.02770377335492521</v>
       </c>
       <c r="AM17">
-        <v>2046</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18" s="1">
-        <v>946</v>
+        <v>901</v>
       </c>
       <c r="B18" s="2">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18">
-        <v>76793</v>
+        <v>78839</v>
       </c>
       <c r="E18">
-        <v>1102333</v>
+        <v>1156404</v>
       </c>
       <c r="G18">
-        <v>4424</v>
+        <v>4291</v>
       </c>
       <c r="I18">
-        <v>1313</v>
+        <v>1293</v>
       </c>
       <c r="N18" t="s">
         <v>39</v>
@@ -3033,46 +3045,46 @@
         <v>53</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R18">
-        <v>3204</v>
+        <v>3261</v>
       </c>
       <c r="T18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U18" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V18">
-        <v>1857</v>
+        <v>2046</v>
       </c>
       <c r="W18">
-        <v>43363</v>
+        <v>54071</v>
       </c>
       <c r="X18">
-        <v>1179126</v>
+        <v>1235243</v>
       </c>
       <c r="Y18">
-        <v>1179126</v>
+        <v>1235243</v>
       </c>
       <c r="Z18">
-        <v>45220</v>
+        <v>56117</v>
       </c>
       <c r="AA18">
-        <v>1179126</v>
+        <v>1235243</v>
       </c>
       <c r="AB18">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3090,36 +3102,36 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0.04172255283684711</v>
+        <v>0.04136277730564822</v>
       </c>
       <c r="AL18">
-        <v>0.04106590004422822</v>
+        <v>0.03645953988987295</v>
       </c>
       <c r="AM18">
-        <v>1857</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19" s="1">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="B19" s="2">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19">
-        <v>74936</v>
+        <v>76793</v>
       </c>
       <c r="E19">
-        <v>1058970</v>
+        <v>1102333</v>
       </c>
       <c r="G19">
-        <v>4519</v>
+        <v>4424</v>
       </c>
       <c r="I19">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="N19" t="s">
         <v>39</v>
@@ -3128,46 +3140,46 @@
         <v>54</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R19">
-        <v>3108</v>
+        <v>3204</v>
       </c>
       <c r="T19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V19">
-        <v>1772</v>
+        <v>1857</v>
       </c>
       <c r="W19">
-        <v>27483</v>
+        <v>43363</v>
       </c>
       <c r="X19">
-        <v>1133906</v>
+        <v>1179126</v>
       </c>
       <c r="Y19">
-        <v>1133906</v>
+        <v>1179126</v>
       </c>
       <c r="Z19">
-        <v>29255</v>
+        <v>45220</v>
       </c>
       <c r="AA19">
-        <v>1133906</v>
+        <v>1179126</v>
       </c>
       <c r="AB19">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3185,33 +3197,33 @@
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.04147539233479235</v>
+        <v>0.04172255283684711</v>
       </c>
       <c r="AL19">
-        <v>0.06057084259101008</v>
+        <v>0.04106590004422822</v>
       </c>
       <c r="AM19">
-        <v>1772</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" s="1">
-        <v>1058</v>
+        <v>1013</v>
       </c>
       <c r="B20" s="2">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20">
-        <v>73164</v>
+        <v>74936</v>
       </c>
       <c r="E20">
-        <v>1031487</v>
+        <v>1058970</v>
       </c>
       <c r="G20">
-        <v>4655</v>
+        <v>4519</v>
       </c>
       <c r="I20">
         <v>1324</v>
@@ -3220,49 +3232,49 @@
         <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="R20">
-        <v>3032</v>
+        <v>3108</v>
       </c>
       <c r="T20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V20">
-        <v>2023</v>
+        <v>1772</v>
       </c>
       <c r="W20">
-        <v>37036</v>
+        <v>27483</v>
       </c>
       <c r="X20">
-        <v>1104651</v>
+        <v>1133906</v>
       </c>
       <c r="Y20">
-        <v>1104651</v>
+        <v>1133906</v>
       </c>
       <c r="Z20">
-        <v>39059</v>
+        <v>29255</v>
       </c>
       <c r="AA20">
-        <v>1104651</v>
+        <v>1133906</v>
       </c>
       <c r="AB20">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3280,36 +3292,36 @@
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>0.04144114591875786</v>
+        <v>0.04147539233479235</v>
       </c>
       <c r="AL20">
-        <v>0.05179344069228603</v>
+        <v>0.06057084259101008</v>
       </c>
       <c r="AM20">
-        <v>2023</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1">
-        <v>1114</v>
+        <v>1069</v>
       </c>
       <c r="B21" s="2">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21">
-        <v>71141</v>
+        <v>73164</v>
       </c>
       <c r="E21">
-        <v>994451</v>
+        <v>1031487</v>
       </c>
       <c r="G21">
-        <v>4545</v>
+        <v>4655</v>
       </c>
       <c r="I21">
-        <v>1314</v>
+        <v>1324</v>
       </c>
       <c r="N21" t="s">
         <v>39</v>
@@ -3318,46 +3330,46 @@
         <v>55</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R21">
-        <v>2934</v>
+        <v>3032</v>
       </c>
       <c r="T21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V21">
-        <v>1759</v>
+        <v>2023</v>
       </c>
       <c r="W21">
-        <v>30463</v>
+        <v>37036</v>
       </c>
       <c r="X21">
-        <v>1065592</v>
+        <v>1104651</v>
       </c>
       <c r="Y21">
-        <v>1065592</v>
+        <v>1104651</v>
       </c>
       <c r="Z21">
-        <v>32222</v>
+        <v>39059</v>
       </c>
       <c r="AA21">
-        <v>1065592</v>
+        <v>1104651</v>
       </c>
       <c r="AB21">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -3375,36 +3387,36 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0.04124204045487131</v>
+        <v>0.04144114591875786</v>
       </c>
       <c r="AL21">
-        <v>0.05459003165539072</v>
+        <v>0.05179344069228603</v>
       </c>
       <c r="AM21">
-        <v>1759</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1">
-        <v>1170</v>
+        <v>1125</v>
       </c>
       <c r="B22" s="2">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22">
-        <v>69382</v>
+        <v>71141</v>
       </c>
       <c r="E22">
-        <v>963988</v>
+        <v>994451</v>
       </c>
       <c r="G22">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="I22">
-        <v>1349</v>
+        <v>1314</v>
       </c>
       <c r="N22" t="s">
         <v>39</v>
@@ -3413,46 +3425,46 @@
         <v>56</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="R22">
-        <v>2847</v>
+        <v>2934</v>
       </c>
       <c r="T22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V22">
-        <v>1443</v>
+        <v>1759</v>
       </c>
       <c r="W22">
-        <v>40030</v>
+        <v>30463</v>
       </c>
       <c r="X22">
-        <v>1033370</v>
+        <v>1065592</v>
       </c>
       <c r="Y22">
-        <v>1033370</v>
+        <v>1065592</v>
       </c>
       <c r="Z22">
-        <v>41473</v>
+        <v>32222</v>
       </c>
       <c r="AA22">
-        <v>1033370</v>
+        <v>1065592</v>
       </c>
       <c r="AB22">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3470,36 +3482,36 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0.04103369750079271</v>
+        <v>0.04124204045487131</v>
       </c>
       <c r="AL22">
-        <v>0.03479372121621296</v>
+        <v>0.05459003165539072</v>
       </c>
       <c r="AM22">
-        <v>1443</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1">
-        <v>1226</v>
+        <v>1181</v>
       </c>
       <c r="B23" s="2">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>67939</v>
+        <v>69382</v>
       </c>
       <c r="E23">
-        <v>923958</v>
+        <v>963988</v>
       </c>
       <c r="G23">
-        <v>4549</v>
+        <v>4544</v>
       </c>
       <c r="I23">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="N23" t="s">
         <v>39</v>
@@ -3508,46 +3520,46 @@
         <v>57</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R23">
-        <v>2770</v>
+        <v>2847</v>
       </c>
       <c r="T23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U23" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V23">
-        <v>1259</v>
+        <v>1443</v>
       </c>
       <c r="W23">
-        <v>34974</v>
+        <v>40030</v>
       </c>
       <c r="X23">
-        <v>991897</v>
+        <v>1033370</v>
       </c>
       <c r="Y23">
-        <v>991897</v>
+        <v>1033370</v>
       </c>
       <c r="Z23">
-        <v>36233</v>
+        <v>41473</v>
       </c>
       <c r="AA23">
-        <v>991897</v>
+        <v>1033370</v>
       </c>
       <c r="AB23">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3565,36 +3577,36 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0.04077186888237978</v>
+        <v>0.04103369750079271</v>
       </c>
       <c r="AL23">
-        <v>0.03474732978224271</v>
+        <v>0.03479372121621296</v>
       </c>
       <c r="AM23">
-        <v>1259</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1">
-        <v>1282</v>
+        <v>1237</v>
       </c>
       <c r="B24" s="2">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
       </c>
       <c r="D24">
-        <v>66680</v>
+        <v>67939</v>
       </c>
       <c r="E24">
-        <v>888984</v>
+        <v>923958</v>
       </c>
       <c r="G24">
-        <v>4555</v>
+        <v>4549</v>
       </c>
       <c r="I24">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="N24" t="s">
         <v>39</v>
@@ -3603,46 +3615,46 @@
         <v>58</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R24">
-        <v>2745</v>
+        <v>2770</v>
       </c>
       <c r="T24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V24">
-        <v>2119</v>
+        <v>1259</v>
       </c>
       <c r="W24">
-        <v>40975</v>
+        <v>34974</v>
       </c>
       <c r="X24">
-        <v>955664</v>
+        <v>991897</v>
       </c>
       <c r="Y24">
-        <v>955664</v>
+        <v>991897</v>
       </c>
       <c r="Z24">
-        <v>43094</v>
+        <v>36233</v>
       </c>
       <c r="AA24">
-        <v>955664</v>
+        <v>991897</v>
       </c>
       <c r="AB24">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3660,36 +3672,36 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.04116676664667067</v>
+        <v>0.04077186888237978</v>
       </c>
       <c r="AL24">
-        <v>0.04917157840998747</v>
+        <v>0.03474732978224271</v>
       </c>
       <c r="AM24">
-        <v>2119</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1">
-        <v>1338</v>
+        <v>1293</v>
       </c>
       <c r="B25" s="2">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25">
-        <v>64561</v>
+        <v>66680</v>
       </c>
       <c r="E25">
-        <v>848009</v>
+        <v>888984</v>
       </c>
       <c r="G25">
-        <v>4538</v>
+        <v>4555</v>
       </c>
       <c r="I25">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="N25" t="s">
         <v>39</v>
@@ -3698,46 +3710,46 @@
         <v>59</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R25">
-        <v>2678</v>
+        <v>2745</v>
       </c>
       <c r="T25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V25">
-        <v>2049</v>
+        <v>2119</v>
       </c>
       <c r="W25">
-        <v>35249</v>
+        <v>40975</v>
       </c>
       <c r="X25">
-        <v>912570</v>
+        <v>955664</v>
       </c>
       <c r="Y25">
-        <v>912570</v>
+        <v>955664</v>
       </c>
       <c r="Z25">
-        <v>37298</v>
+        <v>43094</v>
       </c>
       <c r="AA25">
-        <v>912570</v>
+        <v>955664</v>
       </c>
       <c r="AB25">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3755,36 +3767,36 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.04148015055528879</v>
+        <v>0.04116676664667067</v>
       </c>
       <c r="AL25">
-        <v>0.05493592149713122</v>
+        <v>0.04917157840998747</v>
       </c>
       <c r="AM25">
-        <v>2049</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1">
-        <v>1394</v>
+        <v>1349</v>
       </c>
       <c r="B26" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>62512</v>
+        <v>64561</v>
       </c>
       <c r="E26">
-        <v>812760</v>
+        <v>848009</v>
       </c>
       <c r="G26">
-        <v>4514</v>
+        <v>4538</v>
       </c>
       <c r="I26">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="N26" t="s">
         <v>39</v>
@@ -3793,46 +3805,46 @@
         <v>60</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R26">
-        <v>2585</v>
+        <v>2678</v>
       </c>
       <c r="T26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V26">
-        <v>1898</v>
+        <v>2049</v>
       </c>
       <c r="W26">
-        <v>30500</v>
+        <v>35249</v>
       </c>
       <c r="X26">
-        <v>875272</v>
+        <v>912570</v>
       </c>
       <c r="Y26">
-        <v>875272</v>
+        <v>912570</v>
       </c>
       <c r="Z26">
-        <v>32398</v>
+        <v>37298</v>
       </c>
       <c r="AA26">
-        <v>875272</v>
+        <v>912570</v>
       </c>
       <c r="AB26">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3850,36 +3862,36 @@
         <v>0</v>
       </c>
       <c r="AK26">
-        <v>0.04135206040440235</v>
+        <v>0.04148015055528879</v>
       </c>
       <c r="AL26">
-        <v>0.05858386320143219</v>
+        <v>0.05493592149713122</v>
       </c>
       <c r="AM26">
-        <v>1898</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1">
-        <v>1450</v>
+        <v>1405</v>
       </c>
       <c r="B27" s="2">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
       <c r="D27">
-        <v>60614</v>
+        <v>62512</v>
       </c>
       <c r="E27">
-        <v>782260</v>
+        <v>812760</v>
       </c>
       <c r="G27">
-        <v>4560</v>
+        <v>4514</v>
       </c>
       <c r="I27">
-        <v>1374</v>
+        <v>1342</v>
       </c>
       <c r="N27" t="s">
         <v>39</v>
@@ -3888,46 +3900,46 @@
         <v>61</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R27">
-        <v>2504</v>
+        <v>2585</v>
       </c>
       <c r="T27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U27" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V27">
-        <v>1799</v>
+        <v>1898</v>
       </c>
       <c r="W27">
-        <v>32039</v>
+        <v>30500</v>
       </c>
       <c r="X27">
-        <v>842874</v>
+        <v>875272</v>
       </c>
       <c r="Y27">
-        <v>842874</v>
+        <v>875272</v>
       </c>
       <c r="Z27">
-        <v>33838</v>
+        <v>32398</v>
       </c>
       <c r="AA27">
-        <v>842874</v>
+        <v>875272</v>
       </c>
       <c r="AB27">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -3945,36 +3957,36 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>0.041310588312931</v>
+        <v>0.04135206040440235</v>
       </c>
       <c r="AL27">
-        <v>0.0531650806785271</v>
+        <v>0.05858386320143219</v>
       </c>
       <c r="AM27">
-        <v>1799</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1">
-        <v>1506</v>
+        <v>1461</v>
       </c>
       <c r="B28" s="2">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28">
-        <v>58815</v>
+        <v>60614</v>
       </c>
       <c r="E28">
-        <v>750221</v>
+        <v>782260</v>
       </c>
       <c r="G28">
-        <v>4681</v>
+        <v>4560</v>
       </c>
       <c r="I28">
-        <v>1415</v>
+        <v>1374</v>
       </c>
       <c r="N28" t="s">
         <v>39</v>
@@ -3983,46 +3995,46 @@
         <v>62</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R28">
-        <v>2412</v>
+        <v>2504</v>
       </c>
       <c r="T28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U28" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V28">
-        <v>2603</v>
+        <v>1799</v>
       </c>
       <c r="W28">
-        <v>26531</v>
+        <v>32039</v>
       </c>
       <c r="X28">
-        <v>809036</v>
+        <v>842874</v>
       </c>
       <c r="Y28">
-        <v>809036</v>
+        <v>842874</v>
       </c>
       <c r="Z28">
-        <v>29134</v>
+        <v>33838</v>
       </c>
       <c r="AA28">
-        <v>809036</v>
+        <v>842874</v>
       </c>
       <c r="AB28">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -4040,84 +4052,84 @@
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>0.04100994644223412</v>
+        <v>0.041310588312931</v>
       </c>
       <c r="AL28">
-        <v>0.08934578156106268</v>
+        <v>0.0531650806785271</v>
       </c>
       <c r="AM28">
-        <v>2603</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1">
-        <v>1562</v>
+        <v>1517</v>
       </c>
       <c r="B29" s="2">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29">
-        <v>56212</v>
+        <v>58815</v>
       </c>
       <c r="E29">
-        <v>723690</v>
+        <v>750221</v>
       </c>
       <c r="G29">
-        <v>4622</v>
+        <v>4681</v>
       </c>
       <c r="I29">
-        <v>1388</v>
+        <v>1415</v>
       </c>
       <c r="N29" t="s">
         <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R29">
-        <v>2317</v>
+        <v>2412</v>
       </c>
       <c r="T29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="U29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V29">
-        <v>1275</v>
+        <v>2603</v>
       </c>
       <c r="W29">
-        <v>30753</v>
+        <v>26531</v>
       </c>
       <c r="X29">
-        <v>779902</v>
+        <v>809036</v>
       </c>
       <c r="Y29">
-        <v>779902</v>
+        <v>809036</v>
       </c>
       <c r="Z29">
-        <v>32028</v>
+        <v>29134</v>
       </c>
       <c r="AA29">
-        <v>779902</v>
+        <v>809036</v>
       </c>
       <c r="AB29">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -4135,36 +4147,36 @@
         <v>0</v>
       </c>
       <c r="AK29">
-        <v>0.04121895680637586</v>
+        <v>0.04100994644223412</v>
       </c>
       <c r="AL29">
-        <v>0.03980891719745223</v>
+        <v>0.08934578156106268</v>
       </c>
       <c r="AM29">
-        <v>1275</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1">
-        <v>1618</v>
+        <v>1573</v>
       </c>
       <c r="B30" s="2">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30">
-        <v>54937</v>
+        <v>56212</v>
       </c>
       <c r="E30">
-        <v>692937</v>
+        <v>723690</v>
       </c>
       <c r="G30">
-        <v>4616</v>
+        <v>4622</v>
       </c>
       <c r="I30">
-        <v>1464</v>
+        <v>1388</v>
       </c>
       <c r="N30" t="s">
         <v>39</v>
@@ -4173,46 +4185,46 @@
         <v>63</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R30">
-        <v>2254</v>
+        <v>2317</v>
       </c>
       <c r="T30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V30">
-        <v>1321</v>
+        <v>1275</v>
       </c>
       <c r="W30">
-        <v>30802</v>
+        <v>30753</v>
       </c>
       <c r="X30">
-        <v>747874</v>
+        <v>779902</v>
       </c>
       <c r="Y30">
-        <v>747874</v>
+        <v>779902</v>
       </c>
       <c r="Z30">
-        <v>32123</v>
+        <v>32028</v>
       </c>
       <c r="AA30">
-        <v>747874</v>
+        <v>779902</v>
       </c>
       <c r="AB30">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
       <c r="AD30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -4230,36 +4242,36 @@
         <v>0</v>
       </c>
       <c r="AK30">
-        <v>0.04102881482425324</v>
+        <v>0.04121895680637586</v>
       </c>
       <c r="AL30">
-        <v>0.04112318276624226</v>
+        <v>0.03980891719745223</v>
       </c>
       <c r="AM30">
-        <v>1321</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1">
-        <v>1674</v>
+        <v>1629</v>
       </c>
       <c r="B31" s="2">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
       </c>
       <c r="D31">
-        <v>53616</v>
+        <v>54937</v>
       </c>
       <c r="E31">
-        <v>662135</v>
+        <v>692937</v>
       </c>
       <c r="G31">
-        <v>4734</v>
+        <v>4616</v>
       </c>
       <c r="I31">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="N31" t="s">
         <v>39</v>
@@ -4268,46 +4280,46 @@
         <v>64</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R31">
-        <v>2215</v>
+        <v>2254</v>
       </c>
       <c r="T31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V31">
-        <v>1419</v>
+        <v>1321</v>
       </c>
       <c r="W31">
-        <v>27529</v>
+        <v>30802</v>
       </c>
       <c r="X31">
-        <v>715751</v>
+        <v>747874</v>
       </c>
       <c r="Y31">
-        <v>715751</v>
+        <v>747874</v>
       </c>
       <c r="Z31">
-        <v>28948</v>
+        <v>32123</v>
       </c>
       <c r="AA31">
-        <v>715751</v>
+        <v>747874</v>
       </c>
       <c r="AB31">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
       <c r="AD31" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -4325,36 +4337,36 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>0.04131229483736198</v>
+        <v>0.04102881482425324</v>
       </c>
       <c r="AL31">
-        <v>0.0490189304960619</v>
+        <v>0.04112318276624226</v>
       </c>
       <c r="AM31">
-        <v>1419</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="1:39">
       <c r="A32" s="1">
-        <v>1730</v>
+        <v>1685</v>
       </c>
       <c r="B32" s="2">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
       <c r="D32">
-        <v>52197</v>
+        <v>53616</v>
       </c>
       <c r="E32">
-        <v>634606</v>
+        <v>662135</v>
       </c>
       <c r="G32">
-        <v>4722</v>
+        <v>4734</v>
       </c>
       <c r="I32">
-        <v>1433</v>
+        <v>1468</v>
       </c>
       <c r="N32" t="s">
         <v>39</v>
@@ -4363,46 +4375,46 @@
         <v>65</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R32">
-        <v>2171</v>
+        <v>2215</v>
       </c>
       <c r="T32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V32">
-        <v>1755</v>
+        <v>1419</v>
       </c>
       <c r="W32">
-        <v>30063</v>
+        <v>27529</v>
       </c>
       <c r="X32">
-        <v>686803</v>
+        <v>715751</v>
       </c>
       <c r="Y32">
-        <v>686803</v>
+        <v>715751</v>
       </c>
       <c r="Z32">
-        <v>31818</v>
+        <v>28948</v>
       </c>
       <c r="AA32">
-        <v>686803</v>
+        <v>715751</v>
       </c>
       <c r="AB32">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -4420,36 +4432,36 @@
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>0.04159242868364083</v>
+        <v>0.04131229483736198</v>
       </c>
       <c r="AL32">
-        <v>0.05515745804261739</v>
+        <v>0.0490189304960619</v>
       </c>
       <c r="AM32">
-        <v>1755</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="1">
-        <v>1786</v>
+        <v>1741</v>
       </c>
       <c r="B33" s="2">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
       <c r="D33">
-        <v>50442</v>
+        <v>52197</v>
       </c>
       <c r="E33">
-        <v>604543</v>
+        <v>634606</v>
       </c>
       <c r="G33">
-        <v>4706</v>
+        <v>4722</v>
       </c>
       <c r="I33">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="N33" t="s">
         <v>39</v>
@@ -4458,46 +4470,46 @@
         <v>66</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R33">
-        <v>2073</v>
+        <v>2171</v>
       </c>
       <c r="T33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U33" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V33">
-        <v>1525</v>
+        <v>1755</v>
       </c>
       <c r="W33">
-        <v>28123</v>
+        <v>30063</v>
       </c>
       <c r="X33">
-        <v>654985</v>
+        <v>686803</v>
       </c>
       <c r="Y33">
-        <v>654985</v>
+        <v>686803</v>
       </c>
       <c r="Z33">
-        <v>29648</v>
+        <v>31818</v>
       </c>
       <c r="AA33">
-        <v>654985</v>
+        <v>686803</v>
       </c>
       <c r="AB33">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -4515,36 +4527,36 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>0.04109670512668015</v>
+        <v>0.04159242868364083</v>
       </c>
       <c r="AL33">
-        <v>0.05143685914732866</v>
+        <v>0.05515745804261739</v>
       </c>
       <c r="AM33">
-        <v>1525</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="1">
-        <v>1842</v>
+        <v>1797</v>
       </c>
       <c r="B34" s="2">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
       <c r="D34">
-        <v>48917</v>
+        <v>50442</v>
       </c>
       <c r="E34">
-        <v>576420</v>
+        <v>604543</v>
       </c>
       <c r="G34">
-        <v>4981</v>
+        <v>4706</v>
       </c>
       <c r="I34">
-        <v>1473</v>
+        <v>1434</v>
       </c>
       <c r="N34" t="s">
         <v>39</v>
@@ -4553,46 +4565,46 @@
         <v>67</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R34">
-        <v>1982</v>
+        <v>2073</v>
       </c>
       <c r="T34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U34" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V34">
-        <v>2417</v>
+        <v>1525</v>
       </c>
       <c r="W34">
-        <v>19781</v>
+        <v>28123</v>
       </c>
       <c r="X34">
-        <v>625337</v>
+        <v>654985</v>
       </c>
       <c r="Y34">
-        <v>625337</v>
+        <v>654985</v>
       </c>
       <c r="Z34">
-        <v>22198</v>
+        <v>29648</v>
       </c>
       <c r="AA34">
-        <v>625337</v>
+        <v>654985</v>
       </c>
       <c r="AB34">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
       <c r="AD34" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4610,84 +4622,84 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>0.04051761146431711</v>
+        <v>0.04109670512668015</v>
       </c>
       <c r="AL34">
-        <v>0.108883683214704</v>
+        <v>0.05143685914732866</v>
       </c>
       <c r="AM34">
-        <v>2417</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="1">
-        <v>1898</v>
+        <v>1853</v>
       </c>
       <c r="B35" s="2">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
       <c r="D35">
-        <v>46500</v>
+        <v>48917</v>
       </c>
       <c r="E35">
-        <v>556639</v>
+        <v>576420</v>
       </c>
       <c r="G35">
-        <v>5011</v>
+        <v>4981</v>
       </c>
       <c r="I35">
-        <v>1512</v>
+        <v>1473</v>
       </c>
       <c r="N35" t="s">
         <v>39</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="R35">
-        <v>1887</v>
+        <v>1982</v>
       </c>
       <c r="T35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V35">
-        <v>1469</v>
+        <v>2417</v>
       </c>
       <c r="W35">
-        <v>24062</v>
+        <v>19781</v>
       </c>
       <c r="X35">
-        <v>603139</v>
+        <v>625337</v>
       </c>
       <c r="Y35">
-        <v>603139</v>
+        <v>625337</v>
       </c>
       <c r="Z35">
-        <v>25531</v>
+        <v>22198</v>
       </c>
       <c r="AA35">
-        <v>603139</v>
+        <v>625337</v>
       </c>
       <c r="AB35">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
       <c r="AD35" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -4705,36 +4717,36 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0.04058064516129032</v>
+        <v>0.04051761146431711</v>
       </c>
       <c r="AL35">
-        <v>0.05753789510790804</v>
+        <v>0.108883683214704</v>
       </c>
       <c r="AM35">
-        <v>1469</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="1">
-        <v>1954</v>
+        <v>1909</v>
       </c>
       <c r="B36" s="2">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36">
-        <v>45031</v>
+        <v>46500</v>
       </c>
       <c r="E36">
-        <v>532577</v>
+        <v>556639</v>
       </c>
       <c r="G36">
-        <v>4983</v>
+        <v>5011</v>
       </c>
       <c r="I36">
-        <v>1485</v>
+        <v>1512</v>
       </c>
       <c r="N36" t="s">
         <v>39</v>
@@ -4743,46 +4755,46 @@
         <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R36">
-        <v>1809</v>
+        <v>1887</v>
       </c>
       <c r="T36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U36" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V36">
-        <v>1567</v>
+        <v>1469</v>
       </c>
       <c r="W36">
-        <v>22632</v>
+        <v>24062</v>
       </c>
       <c r="X36">
-        <v>577608</v>
+        <v>603139</v>
       </c>
       <c r="Y36">
-        <v>577608</v>
+        <v>603139</v>
       </c>
       <c r="Z36">
-        <v>24199</v>
+        <v>25531</v>
       </c>
       <c r="AA36">
-        <v>577608</v>
+        <v>603139</v>
       </c>
       <c r="AB36">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AC36">
         <v>0</v>
       </c>
       <c r="AD36" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -4800,84 +4812,84 @@
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>0.04017232573116298</v>
+        <v>0.04058064516129032</v>
       </c>
       <c r="AL36">
-        <v>0.06475474193148477</v>
+        <v>0.05753789510790804</v>
       </c>
       <c r="AM36">
-        <v>1567</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="1">
-        <v>2010</v>
+        <v>1965</v>
       </c>
       <c r="B37" s="2">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37">
-        <v>43464</v>
+        <v>45031</v>
       </c>
       <c r="E37">
-        <v>509945</v>
+        <v>532577</v>
       </c>
       <c r="G37">
-        <v>4878</v>
+        <v>4983</v>
       </c>
       <c r="I37">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="N37" t="s">
         <v>39</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q37" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R37">
-        <v>1755</v>
+        <v>1809</v>
       </c>
       <c r="T37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="U37" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V37">
-        <v>1300</v>
+        <v>1567</v>
       </c>
       <c r="W37">
-        <v>26025</v>
+        <v>22632</v>
       </c>
       <c r="X37">
-        <v>553409</v>
+        <v>577608</v>
       </c>
       <c r="Y37">
-        <v>553409</v>
+        <v>577608</v>
       </c>
       <c r="Z37">
-        <v>27325</v>
+        <v>24199</v>
       </c>
       <c r="AA37">
-        <v>553409</v>
+        <v>577608</v>
       </c>
       <c r="AB37">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AC37">
         <v>0</v>
       </c>
       <c r="AD37" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -4895,36 +4907,36 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>0.04037824406405301</v>
+        <v>0.04017232573116298</v>
       </c>
       <c r="AL37">
-        <v>0.04757548032936871</v>
+        <v>0.06475474193148477</v>
       </c>
       <c r="AM37">
-        <v>1300</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1">
-        <v>2066</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="2">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
       </c>
       <c r="D38">
-        <v>42164</v>
+        <v>43464</v>
       </c>
       <c r="E38">
-        <v>483920</v>
+        <v>509945</v>
       </c>
       <c r="G38">
-        <v>4928</v>
+        <v>4878</v>
       </c>
       <c r="I38">
-        <v>1473</v>
+        <v>1499</v>
       </c>
       <c r="N38" t="s">
         <v>39</v>
@@ -4933,46 +4945,46 @@
         <v>69</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R38">
-        <v>1710</v>
+        <v>1755</v>
       </c>
       <c r="T38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U38" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V38">
-        <v>1027</v>
+        <v>1300</v>
       </c>
       <c r="W38">
-        <v>19022</v>
+        <v>26025</v>
       </c>
       <c r="X38">
-        <v>526084</v>
+        <v>553409</v>
       </c>
       <c r="Y38">
-        <v>526084</v>
+        <v>553409</v>
       </c>
       <c r="Z38">
-        <v>20049</v>
+        <v>27325</v>
       </c>
       <c r="AA38">
-        <v>526084</v>
+        <v>553409</v>
       </c>
       <c r="AB38">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -4990,36 +5002,36 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>0.04055592448534295</v>
+        <v>0.04037824406405301</v>
       </c>
       <c r="AL38">
-        <v>0.0512244999750611</v>
+        <v>0.04757548032936871</v>
       </c>
       <c r="AM38">
-        <v>1027</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="1">
-        <v>2122</v>
+        <v>2077</v>
       </c>
       <c r="B39" s="2">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39">
-        <v>41137</v>
+        <v>42164</v>
       </c>
       <c r="E39">
-        <v>464898</v>
+        <v>483920</v>
       </c>
       <c r="G39">
-        <v>4847</v>
+        <v>4928</v>
       </c>
       <c r="I39">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="N39" t="s">
         <v>39</v>
@@ -5028,46 +5040,46 @@
         <v>70</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q39" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R39">
-        <v>1651</v>
+        <v>1710</v>
       </c>
       <c r="T39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U39" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V39">
-        <v>1883</v>
+        <v>1027</v>
       </c>
       <c r="W39">
-        <v>9979</v>
+        <v>19022</v>
       </c>
       <c r="X39">
-        <v>506035</v>
+        <v>526084</v>
       </c>
       <c r="Y39">
-        <v>506035</v>
+        <v>526084</v>
       </c>
       <c r="Z39">
-        <v>11862</v>
+        <v>20049</v>
       </c>
       <c r="AA39">
-        <v>506035</v>
+        <v>526084</v>
       </c>
       <c r="AB39">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="AC39">
         <v>0</v>
       </c>
       <c r="AD39" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -5085,84 +5097,84 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.04013418576950191</v>
+        <v>0.04055592448534295</v>
       </c>
       <c r="AL39">
-        <v>0.1587422019895464</v>
+        <v>0.0512244999750611</v>
       </c>
       <c r="AM39">
-        <v>1883</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="1">
-        <v>2178</v>
+        <v>2133</v>
       </c>
       <c r="B40" s="2">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40">
-        <v>39254</v>
+        <v>41137</v>
       </c>
       <c r="E40">
-        <v>454919</v>
+        <v>464898</v>
       </c>
       <c r="G40">
-        <v>4880</v>
+        <v>4847</v>
       </c>
       <c r="I40">
-        <v>1521</v>
+        <v>1458</v>
       </c>
       <c r="N40" t="s">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="R40">
-        <v>1562</v>
+        <v>1651</v>
       </c>
       <c r="T40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U40" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V40">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="W40">
-        <v>10191</v>
+        <v>9979</v>
       </c>
       <c r="X40">
-        <v>494173</v>
+        <v>506035</v>
       </c>
       <c r="Y40">
-        <v>494173</v>
+        <v>506035</v>
       </c>
       <c r="Z40">
-        <v>12076</v>
+        <v>11862</v>
       </c>
       <c r="AA40">
-        <v>494173</v>
+        <v>506035</v>
       </c>
       <c r="AB40">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -5180,36 +5192,36 @@
         <v>0</v>
       </c>
       <c r="AK40">
-        <v>0.03979212309573547</v>
+        <v>0.04013418576950191</v>
       </c>
       <c r="AL40">
-        <v>0.1560947333554157</v>
+        <v>0.1587422019895464</v>
       </c>
       <c r="AM40">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="1">
-        <v>2234</v>
+        <v>2189</v>
       </c>
       <c r="B41" s="2">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="D41">
-        <v>37369</v>
+        <v>39254</v>
       </c>
       <c r="E41">
-        <v>444728</v>
+        <v>454919</v>
       </c>
       <c r="G41">
-        <v>4929</v>
+        <v>4880</v>
       </c>
       <c r="I41">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="N41" t="s">
         <v>39</v>
@@ -5218,46 +5230,46 @@
         <v>71</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R41">
-        <v>1469</v>
+        <v>1562</v>
       </c>
       <c r="T41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V41">
-        <v>1973</v>
+        <v>1885</v>
       </c>
       <c r="W41">
-        <v>14797</v>
+        <v>10191</v>
       </c>
       <c r="X41">
-        <v>482097</v>
+        <v>494173</v>
       </c>
       <c r="Y41">
-        <v>482097</v>
+        <v>494173</v>
       </c>
       <c r="Z41">
-        <v>16770</v>
+        <v>12076</v>
       </c>
       <c r="AA41">
-        <v>482097</v>
+        <v>494173</v>
       </c>
       <c r="AB41">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AC41">
         <v>0</v>
       </c>
       <c r="AD41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -5275,36 +5287,36 @@
         <v>0</v>
       </c>
       <c r="AK41">
-        <v>0.03931065856726163</v>
+        <v>0.03979212309573547</v>
       </c>
       <c r="AL41">
-        <v>0.1176505664877758</v>
+        <v>0.1560947333554157</v>
       </c>
       <c r="AM41">
-        <v>1973</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1">
-        <v>2290</v>
+        <v>2245</v>
       </c>
       <c r="B42" s="2">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42">
-        <v>35396</v>
+        <v>37369</v>
       </c>
       <c r="E42">
-        <v>429931</v>
+        <v>444728</v>
       </c>
       <c r="G42">
-        <v>4984</v>
+        <v>4929</v>
       </c>
       <c r="I42">
-        <v>1551</v>
+        <v>1531</v>
       </c>
       <c r="N42" t="s">
         <v>39</v>
@@ -5313,46 +5325,46 @@
         <v>72</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R42">
-        <v>1354</v>
+        <v>1469</v>
       </c>
       <c r="T42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U42" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V42">
-        <v>2135</v>
+        <v>1973</v>
       </c>
       <c r="W42">
-        <v>163092</v>
+        <v>14797</v>
       </c>
       <c r="X42">
-        <v>465327</v>
+        <v>482097</v>
       </c>
       <c r="Y42">
-        <v>465327</v>
+        <v>482097</v>
       </c>
       <c r="Z42">
-        <v>165227</v>
+        <v>16770</v>
       </c>
       <c r="AA42">
-        <v>465327</v>
+        <v>482097</v>
       </c>
       <c r="AB42">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="AC42">
         <v>0</v>
       </c>
       <c r="AD42" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -5370,84 +5382,84 @@
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>0.0382529099333258</v>
+        <v>0.03931065856726163</v>
       </c>
       <c r="AL42">
-        <v>0.01292161692701556</v>
+        <v>0.1176505664877758</v>
       </c>
       <c r="AM42">
-        <v>2135</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="1">
-        <v>2346</v>
+        <v>2301</v>
       </c>
       <c r="B43" s="2">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43">
-        <v>33261</v>
+        <v>35396</v>
       </c>
       <c r="E43">
-        <v>266839</v>
+        <v>429931</v>
       </c>
       <c r="G43">
-        <v>4886</v>
+        <v>4984</v>
       </c>
       <c r="I43">
-        <v>1502</v>
+        <v>1551</v>
       </c>
       <c r="N43" t="s">
         <v>39</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R43">
-        <v>1268</v>
+        <v>1354</v>
       </c>
       <c r="T43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V43">
-        <v>2283</v>
+        <v>2135</v>
       </c>
       <c r="W43">
-        <v>7317</v>
+        <v>163092</v>
       </c>
       <c r="X43">
-        <v>300100</v>
+        <v>465327</v>
       </c>
       <c r="Y43">
-        <v>300100</v>
+        <v>465327</v>
       </c>
       <c r="Z43">
-        <v>9600</v>
+        <v>165227</v>
       </c>
       <c r="AA43">
-        <v>300100</v>
+        <v>465327</v>
       </c>
       <c r="AB43">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="AC43">
         <v>0</v>
       </c>
       <c r="AD43" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -5465,36 +5477,36 @@
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>0.03812272631610595</v>
+        <v>0.0382529099333258</v>
       </c>
       <c r="AL43">
-        <v>0.2378125</v>
+        <v>0.01292161692701556</v>
       </c>
       <c r="AM43">
-        <v>2283</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1">
-        <v>2402</v>
+        <v>2357</v>
       </c>
       <c r="B44" s="2">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44">
-        <v>30978</v>
+        <v>33261</v>
       </c>
       <c r="E44">
-        <v>259522</v>
+        <v>266839</v>
       </c>
       <c r="G44">
-        <v>4674</v>
+        <v>4886</v>
       </c>
       <c r="I44">
-        <v>1480</v>
+        <v>1502</v>
       </c>
       <c r="N44" t="s">
         <v>39</v>
@@ -5503,46 +5515,46 @@
         <v>73</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R44">
-        <v>1208</v>
+        <v>1268</v>
       </c>
       <c r="T44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V44">
-        <v>645</v>
+        <v>2283</v>
       </c>
       <c r="W44">
-        <v>8955</v>
+        <v>7317</v>
       </c>
       <c r="X44">
-        <v>290500</v>
+        <v>300100</v>
       </c>
       <c r="Y44">
-        <v>290500</v>
+        <v>300100</v>
       </c>
       <c r="Z44">
         <v>9600</v>
       </c>
       <c r="AA44">
-        <v>290500</v>
+        <v>300100</v>
       </c>
       <c r="AB44">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AC44">
         <v>0</v>
       </c>
       <c r="AD44" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -5560,39 +5572,36 @@
         <v>0</v>
       </c>
       <c r="AK44">
-        <v>0.03899541610174963</v>
+        <v>0.03812272631610595</v>
       </c>
       <c r="AL44">
-        <v>0.0671875</v>
+        <v>0.2378125</v>
       </c>
       <c r="AM44">
-        <v>645</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="1">
-        <v>2458</v>
+        <v>2413</v>
       </c>
       <c r="B45" s="2">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
       </c>
       <c r="D45">
-        <v>30333</v>
+        <v>30978</v>
       </c>
       <c r="E45">
-        <v>250567</v>
-      </c>
-      <c r="F45">
-        <v>7200</v>
+        <v>259522</v>
       </c>
       <c r="G45">
-        <v>4731</v>
+        <v>4674</v>
       </c>
       <c r="I45">
-        <v>1457</v>
+        <v>1480</v>
       </c>
       <c r="N45" t="s">
         <v>39</v>
@@ -5601,46 +5610,46 @@
         <v>74</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R45">
-        <v>1166</v>
+        <v>1208</v>
       </c>
       <c r="T45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U45" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V45">
-        <v>1370</v>
+        <v>645</v>
       </c>
       <c r="W45">
-        <v>19864</v>
+        <v>8955</v>
       </c>
       <c r="X45">
-        <v>288100</v>
+        <v>290500</v>
       </c>
       <c r="Y45">
-        <v>280900</v>
+        <v>290500</v>
       </c>
       <c r="Z45">
-        <v>21234</v>
+        <v>9600</v>
       </c>
       <c r="AA45">
-        <v>280900</v>
+        <v>290500</v>
       </c>
       <c r="AB45">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="AC45">
         <v>0</v>
       </c>
       <c r="AD45" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -5658,39 +5667,39 @@
         <v>0</v>
       </c>
       <c r="AK45">
-        <v>0.03843998285695447</v>
+        <v>0.03899541610174963</v>
       </c>
       <c r="AL45">
-        <v>0.0645191673730809</v>
+        <v>0.0671875</v>
       </c>
       <c r="AM45">
-        <v>1370</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1">
-        <v>2514</v>
+        <v>2469</v>
       </c>
       <c r="B46" s="2">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="D46">
-        <v>28963</v>
+        <v>30333</v>
       </c>
       <c r="E46">
-        <v>230703</v>
+        <v>250567</v>
       </c>
       <c r="F46">
         <v>7200</v>
       </c>
       <c r="G46">
-        <v>4936</v>
+        <v>4731</v>
       </c>
       <c r="I46">
-        <v>1490</v>
+        <v>1457</v>
       </c>
       <c r="N46" t="s">
         <v>39</v>
@@ -5699,46 +5708,46 @@
         <v>75</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R46">
-        <v>1072</v>
+        <v>1166</v>
       </c>
       <c r="T46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U46" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V46">
-        <v>1435</v>
+        <v>1370</v>
       </c>
       <c r="W46">
-        <v>6617</v>
+        <v>19864</v>
       </c>
       <c r="X46">
-        <v>266866</v>
+        <v>288100</v>
       </c>
       <c r="Y46">
-        <v>259666</v>
+        <v>280900</v>
       </c>
       <c r="Z46">
-        <v>8052</v>
+        <v>21234</v>
       </c>
       <c r="AA46">
-        <v>259666</v>
+        <v>280900</v>
       </c>
       <c r="AB46">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AC46">
         <v>0</v>
       </c>
       <c r="AD46" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -5756,87 +5765,87 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>0.0370127403929151</v>
+        <v>0.03843998285695447</v>
       </c>
       <c r="AL46">
-        <v>0.1782165921510184</v>
+        <v>0.0645191673730809</v>
       </c>
       <c r="AM46">
-        <v>1435</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1">
-        <v>2570</v>
+        <v>2525</v>
       </c>
       <c r="B47" s="2">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47">
-        <v>27528</v>
+        <v>28963</v>
       </c>
       <c r="E47">
-        <v>224086</v>
+        <v>230703</v>
       </c>
       <c r="F47">
         <v>7200</v>
       </c>
       <c r="G47">
-        <v>4892</v>
+        <v>4936</v>
       </c>
       <c r="I47">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="N47" t="s">
         <v>39</v>
       </c>
       <c r="O47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q47" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="R47">
-        <v>985</v>
+        <v>1072</v>
       </c>
       <c r="T47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U47" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V47">
-        <v>1346</v>
+        <v>1435</v>
       </c>
       <c r="W47">
-        <v>3868</v>
+        <v>6617</v>
       </c>
       <c r="X47">
-        <v>258814</v>
+        <v>266866</v>
       </c>
       <c r="Y47">
-        <v>251614</v>
+        <v>259666</v>
       </c>
       <c r="Z47">
-        <v>5214</v>
+        <v>8052</v>
       </c>
       <c r="AA47">
-        <v>251614</v>
+        <v>259666</v>
       </c>
       <c r="AB47">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AC47">
         <v>0</v>
       </c>
       <c r="AD47" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -5854,39 +5863,39 @@
         <v>0</v>
       </c>
       <c r="AK47">
-        <v>0.03578174949142691</v>
+        <v>0.0370127403929151</v>
       </c>
       <c r="AL47">
-        <v>0.2581511315688531</v>
+        <v>0.1782165921510184</v>
       </c>
       <c r="AM47">
-        <v>1346</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="1">
-        <v>2626</v>
+        <v>2581</v>
       </c>
       <c r="B48" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C48" t="s">
         <v>38</v>
       </c>
       <c r="D48">
-        <v>26182</v>
+        <v>27528</v>
       </c>
       <c r="E48">
-        <v>220218</v>
+        <v>224086</v>
       </c>
       <c r="F48">
-        <v>13200</v>
+        <v>7200</v>
       </c>
       <c r="G48">
-        <v>5031</v>
+        <v>4892</v>
       </c>
       <c r="I48">
-        <v>1568</v>
+        <v>1484</v>
       </c>
       <c r="N48" t="s">
         <v>39</v>
@@ -5895,46 +5904,46 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R48">
-        <v>890</v>
+        <v>985</v>
       </c>
       <c r="T48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U48" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V48">
-        <v>1758</v>
+        <v>1346</v>
       </c>
       <c r="W48">
-        <v>28156</v>
+        <v>3868</v>
       </c>
       <c r="X48">
-        <v>259600</v>
+        <v>258814</v>
       </c>
       <c r="Y48">
-        <v>246400</v>
+        <v>251614</v>
       </c>
       <c r="Z48">
-        <v>29914</v>
+        <v>5214</v>
       </c>
       <c r="AA48">
-        <v>246400</v>
+        <v>251614</v>
       </c>
       <c r="AB48">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
       <c r="AD48" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -5952,39 +5961,39 @@
         <v>0</v>
       </c>
       <c r="AK48">
-        <v>0.03399281949430907</v>
+        <v>0.03578174949142691</v>
       </c>
       <c r="AL48">
-        <v>0.05876846961289028</v>
+        <v>0.2581511315688531</v>
       </c>
       <c r="AM48">
-        <v>1758</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="1">
-        <v>2682</v>
+        <v>2637</v>
       </c>
       <c r="B49" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="D49">
-        <v>24424</v>
+        <v>26182</v>
       </c>
       <c r="E49">
-        <v>192062</v>
+        <v>220218</v>
       </c>
       <c r="F49">
         <v>13200</v>
       </c>
       <c r="G49">
-        <v>5163</v>
+        <v>5031</v>
       </c>
       <c r="I49">
-        <v>1175</v>
+        <v>1568</v>
       </c>
       <c r="N49" t="s">
         <v>39</v>
@@ -5993,46 +6002,46 @@
         <v>77</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R49">
-        <v>821</v>
+        <v>890</v>
       </c>
       <c r="T49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V49">
-        <v>1086</v>
+        <v>1758</v>
       </c>
       <c r="W49">
-        <v>13192</v>
+        <v>28156</v>
       </c>
       <c r="X49">
-        <v>229686</v>
+        <v>259600</v>
       </c>
       <c r="Y49">
-        <v>216486</v>
+        <v>246400</v>
       </c>
       <c r="Z49">
-        <v>14278</v>
+        <v>29914</v>
       </c>
       <c r="AA49">
-        <v>216486</v>
+        <v>246400</v>
       </c>
       <c r="AB49">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AC49">
         <v>0</v>
       </c>
       <c r="AD49" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -6050,30 +6059,30 @@
         <v>0</v>
       </c>
       <c r="AK49">
-        <v>0.03361447756305273</v>
+        <v>0.03399281949430907</v>
       </c>
       <c r="AL49">
-        <v>0.07606107297940888</v>
+        <v>0.05876846961289028</v>
       </c>
       <c r="AM49">
-        <v>1086</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="1">
-        <v>2738</v>
+        <v>2693</v>
       </c>
       <c r="B50" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50">
-        <v>23338</v>
+        <v>24424</v>
       </c>
       <c r="E50">
-        <v>178870</v>
+        <v>192062</v>
       </c>
       <c r="F50">
         <v>13200</v>
@@ -6082,7 +6091,7 @@
         <v>5163</v>
       </c>
       <c r="I50">
-        <v>1552</v>
+        <v>1175</v>
       </c>
       <c r="N50" t="s">
         <v>39</v>
@@ -6091,46 +6100,46 @@
         <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R50">
-        <v>758</v>
+        <v>821</v>
       </c>
       <c r="T50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U50" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V50">
-        <v>990</v>
+        <v>1086</v>
       </c>
       <c r="W50">
-        <v>10336</v>
+        <v>13192</v>
       </c>
       <c r="X50">
-        <v>215408</v>
+        <v>229686</v>
       </c>
       <c r="Y50">
-        <v>202208</v>
+        <v>216486</v>
       </c>
       <c r="Z50">
-        <v>11326</v>
+        <v>14278</v>
       </c>
       <c r="AA50">
-        <v>202208</v>
+        <v>216486</v>
       </c>
       <c r="AB50">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AC50">
         <v>0</v>
       </c>
       <c r="AD50" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -6148,39 +6157,39 @@
         <v>0</v>
       </c>
       <c r="AK50">
-        <v>0.03247921844202588</v>
+        <v>0.03361447756305273</v>
       </c>
       <c r="AL50">
-        <v>0.08740950026487727</v>
+        <v>0.07606107297940888</v>
       </c>
       <c r="AM50">
-        <v>990</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="1">
-        <v>2794</v>
+        <v>2749</v>
       </c>
       <c r="B51" s="2">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="D51">
-        <v>22348</v>
+        <v>23338</v>
       </c>
       <c r="E51">
-        <v>168534</v>
+        <v>178870</v>
       </c>
       <c r="F51">
         <v>13200</v>
       </c>
       <c r="G51">
-        <v>3015</v>
+        <v>5163</v>
       </c>
       <c r="I51">
-        <v>1178</v>
+        <v>1552</v>
       </c>
       <c r="N51" t="s">
         <v>39</v>
@@ -6189,46 +6198,46 @@
         <v>79</v>
       </c>
       <c r="P51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R51">
-        <v>687</v>
+        <v>758</v>
       </c>
       <c r="T51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U51" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V51">
-        <v>554</v>
+        <v>990</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>10336</v>
       </c>
       <c r="X51">
-        <v>204082</v>
+        <v>215408</v>
       </c>
       <c r="Y51">
-        <v>190882</v>
+        <v>202208</v>
       </c>
       <c r="Z51">
-        <v>554</v>
+        <v>11326</v>
       </c>
       <c r="AA51">
-        <v>190882</v>
+        <v>202208</v>
       </c>
       <c r="AB51">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="AC51">
         <v>0</v>
       </c>
       <c r="AD51" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AE51">
         <v>0</v>
@@ -6246,27 +6255,27 @@
         <v>0</v>
       </c>
       <c r="AK51">
-        <v>0.03074100590656882</v>
+        <v>0.03247921844202588</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0.08740950026487727</v>
       </c>
       <c r="AM51">
-        <v>554</v>
+        <v>990</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="1">
-        <v>2850</v>
+        <v>2805</v>
       </c>
       <c r="B52" s="2">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
       </c>
       <c r="D52">
-        <v>21794</v>
+        <v>22348</v>
       </c>
       <c r="E52">
         <v>168534</v>
@@ -6275,10 +6284,10 @@
         <v>13200</v>
       </c>
       <c r="G52">
-        <v>5234</v>
+        <v>3015</v>
       </c>
       <c r="I52">
-        <v>1539</v>
+        <v>1178</v>
       </c>
       <c r="N52" t="s">
         <v>39</v>
@@ -6287,46 +6296,46 @@
         <v>80</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R52">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="T52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U52" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V52">
-        <v>1179</v>
+        <v>554</v>
       </c>
       <c r="W52">
-        <v>15930</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>203528</v>
+        <v>204082</v>
       </c>
       <c r="Y52">
-        <v>190328</v>
+        <v>190882</v>
       </c>
       <c r="Z52">
-        <v>17109</v>
+        <v>554</v>
       </c>
       <c r="AA52">
-        <v>190328</v>
+        <v>190882</v>
       </c>
       <c r="AB52">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AC52">
         <v>0</v>
       </c>
       <c r="AD52" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -6344,39 +6353,39 @@
         <v>0</v>
       </c>
       <c r="AK52">
-        <v>0.02987060658896944</v>
+        <v>0.03074100590656882</v>
       </c>
       <c r="AL52">
-        <v>0.06891109942135717</v>
+        <v>1</v>
       </c>
       <c r="AM52">
-        <v>1179</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="1">
-        <v>2906</v>
+        <v>2861</v>
       </c>
       <c r="B53" s="2">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
       </c>
       <c r="D53">
-        <v>20615</v>
+        <v>21794</v>
       </c>
       <c r="E53">
-        <v>152604</v>
+        <v>168534</v>
       </c>
       <c r="F53">
         <v>13200</v>
       </c>
       <c r="G53">
-        <v>5236</v>
+        <v>5234</v>
       </c>
       <c r="I53">
-        <v>1591</v>
+        <v>1539</v>
       </c>
       <c r="N53" t="s">
         <v>39</v>
@@ -6385,46 +6394,46 @@
         <v>81</v>
       </c>
       <c r="P53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R53">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="T53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U53" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V53">
-        <v>1143</v>
+        <v>1179</v>
       </c>
       <c r="W53">
-        <v>7213</v>
+        <v>15930</v>
       </c>
       <c r="X53">
-        <v>186419</v>
+        <v>203528</v>
       </c>
       <c r="Y53">
-        <v>173219</v>
+        <v>190328</v>
       </c>
       <c r="Z53">
-        <v>8356</v>
+        <v>17109</v>
       </c>
       <c r="AA53">
-        <v>173219</v>
+        <v>190328</v>
       </c>
       <c r="AB53">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AC53">
         <v>0</v>
       </c>
       <c r="AD53" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -6442,87 +6451,87 @@
         <v>0</v>
       </c>
       <c r="AK53">
-        <v>0.02954159592529711</v>
+        <v>0.02987060658896944</v>
       </c>
       <c r="AL53">
-        <v>0.1367879368118717</v>
+        <v>0.06891109942135717</v>
       </c>
       <c r="AM53">
-        <v>1143</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="1">
-        <v>2962</v>
+        <v>2917</v>
       </c>
       <c r="B54" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54">
-        <v>19472</v>
+        <v>20615</v>
       </c>
       <c r="E54">
-        <v>145391</v>
+        <v>152604</v>
       </c>
       <c r="F54">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="G54">
-        <v>2897</v>
+        <v>5236</v>
       </c>
       <c r="I54">
-        <v>1145</v>
+        <v>1591</v>
       </c>
       <c r="N54" t="s">
         <v>39</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R54">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="T54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U54" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V54">
-        <v>1163</v>
+        <v>1143</v>
       </c>
       <c r="W54">
-        <v>200</v>
+        <v>7213</v>
       </c>
       <c r="X54">
-        <v>178763</v>
+        <v>186419</v>
       </c>
       <c r="Y54">
-        <v>164863</v>
+        <v>173219</v>
       </c>
       <c r="Z54">
-        <v>1363</v>
+        <v>8356</v>
       </c>
       <c r="AA54">
-        <v>164863</v>
+        <v>173219</v>
       </c>
       <c r="AB54">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AC54">
         <v>0</v>
       </c>
       <c r="AD54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -6540,39 +6549,39 @@
         <v>0</v>
       </c>
       <c r="AK54">
-        <v>0.02778348397699261</v>
+        <v>0.02954159592529711</v>
       </c>
       <c r="AL54">
-        <v>0.8532648569332355</v>
+        <v>0.1367879368118717</v>
       </c>
       <c r="AM54">
-        <v>1163</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1">
-        <v>3018</v>
+        <v>2973</v>
       </c>
       <c r="B55" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
       <c r="D55">
-        <v>18309</v>
+        <v>19472</v>
       </c>
       <c r="E55">
-        <v>145191</v>
+        <v>145391</v>
       </c>
       <c r="F55">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="G55">
-        <v>2825</v>
+        <v>2897</v>
       </c>
       <c r="I55">
-        <v>1132</v>
+        <v>1145</v>
       </c>
       <c r="N55" t="s">
         <v>39</v>
@@ -6581,46 +6590,46 @@
         <v>82</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R55">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="T55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U55" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V55">
-        <v>1352</v>
+        <v>1163</v>
       </c>
       <c r="W55">
-        <v>17884</v>
+        <v>200</v>
       </c>
       <c r="X55">
-        <v>177600</v>
+        <v>178763</v>
       </c>
       <c r="Y55">
-        <v>163500</v>
+        <v>164863</v>
       </c>
       <c r="Z55">
-        <v>19236</v>
+        <v>1363</v>
       </c>
       <c r="AA55">
-        <v>163500</v>
+        <v>164863</v>
       </c>
       <c r="AB55">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC55">
         <v>0</v>
       </c>
       <c r="AD55" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -6638,39 +6647,39 @@
         <v>0</v>
       </c>
       <c r="AK55">
-        <v>0.026872030149107</v>
+        <v>0.02778348397699261</v>
       </c>
       <c r="AL55">
-        <v>0.07028488251195675</v>
+        <v>0.8532648569332355</v>
       </c>
       <c r="AM55">
-        <v>1352</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="1">
-        <v>3074</v>
+        <v>3029</v>
       </c>
       <c r="B56" s="2">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
       </c>
       <c r="D56">
-        <v>16957</v>
+        <v>18309</v>
       </c>
       <c r="E56">
-        <v>127307</v>
+        <v>145191</v>
       </c>
       <c r="F56">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="G56">
-        <v>2714</v>
+        <v>2825</v>
       </c>
       <c r="I56">
-        <v>1154</v>
+        <v>1132</v>
       </c>
       <c r="N56" t="s">
         <v>39</v>
@@ -6679,46 +6688,46 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q56" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R56">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="T56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U56" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V56">
-        <v>1092</v>
+        <v>1352</v>
       </c>
       <c r="W56">
-        <v>11943</v>
+        <v>17884</v>
       </c>
       <c r="X56">
-        <v>158864</v>
+        <v>177600</v>
       </c>
       <c r="Y56">
-        <v>144264</v>
+        <v>163500</v>
       </c>
       <c r="Z56">
-        <v>13035</v>
+        <v>19236</v>
       </c>
       <c r="AA56">
-        <v>144264</v>
+        <v>163500</v>
       </c>
       <c r="AB56">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="AC56">
         <v>0</v>
       </c>
       <c r="AD56" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AE56">
         <v>0</v>
@@ -6736,87 +6745,87 @@
         <v>0</v>
       </c>
       <c r="AK56">
-        <v>0.02606593147372767</v>
+        <v>0.026872030149107</v>
       </c>
       <c r="AL56">
-        <v>0.08377445339470656</v>
+        <v>0.07028488251195675</v>
       </c>
       <c r="AM56">
-        <v>1092</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="1">
-        <v>3130</v>
+        <v>3085</v>
       </c>
       <c r="B57" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
       </c>
       <c r="D57">
-        <v>15865</v>
+        <v>16957</v>
       </c>
       <c r="E57">
-        <v>115364</v>
+        <v>127307</v>
       </c>
       <c r="F57">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G57">
-        <v>2611</v>
+        <v>2714</v>
       </c>
       <c r="I57">
-        <v>1108</v>
+        <v>1154</v>
       </c>
       <c r="N57" t="s">
         <v>39</v>
       </c>
       <c r="O57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R57">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="T57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U57" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V57">
-        <v>1529</v>
+        <v>1092</v>
       </c>
       <c r="W57">
-        <v>12269</v>
+        <v>11943</v>
       </c>
       <c r="X57">
-        <v>145329</v>
+        <v>158864</v>
       </c>
       <c r="Y57">
-        <v>131229</v>
+        <v>144264</v>
       </c>
       <c r="Z57">
-        <v>13798</v>
+        <v>13035</v>
       </c>
       <c r="AA57">
-        <v>131229</v>
+        <v>144264</v>
       </c>
       <c r="AB57">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="AC57">
         <v>0</v>
       </c>
       <c r="AD57" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AE57">
         <v>0</v>
@@ -6834,39 +6843,39 @@
         <v>0</v>
       </c>
       <c r="AK57">
-        <v>0.02357390482193508</v>
+        <v>0.02606593147372767</v>
       </c>
       <c r="AL57">
-        <v>0.1108131613277287</v>
+        <v>0.08377445339470656</v>
       </c>
       <c r="AM57">
-        <v>1529</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="1">
-        <v>3186</v>
+        <v>3141</v>
       </c>
       <c r="B58" s="2">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
       </c>
       <c r="D58">
-        <v>14336</v>
+        <v>15865</v>
       </c>
       <c r="E58">
-        <v>103095</v>
+        <v>115364</v>
       </c>
       <c r="F58">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="G58">
-        <v>2509</v>
+        <v>2611</v>
       </c>
       <c r="I58">
-        <v>1085</v>
+        <v>1108</v>
       </c>
       <c r="N58" t="s">
         <v>39</v>
@@ -6875,46 +6884,46 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R58">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="T58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U58" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V58">
-        <v>898</v>
+        <v>1529</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>12269</v>
       </c>
       <c r="X58">
-        <v>132431</v>
+        <v>145329</v>
       </c>
       <c r="Y58">
-        <v>117431</v>
+        <v>131229</v>
       </c>
       <c r="Z58">
-        <v>898</v>
+        <v>13798</v>
       </c>
       <c r="AA58">
-        <v>117431</v>
+        <v>131229</v>
       </c>
       <c r="AB58">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC58">
         <v>0</v>
       </c>
       <c r="AD58" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AE58">
         <v>0</v>
@@ -6932,27 +6941,27 @@
         <v>0</v>
       </c>
       <c r="AK58">
-        <v>0.02392578125</v>
+        <v>0.02357390482193508</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0.1108131613277287</v>
       </c>
       <c r="AM58">
-        <v>898</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="1">
-        <v>3242</v>
+        <v>3197</v>
       </c>
       <c r="B59" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="C59" t="s">
         <v>38</v>
       </c>
       <c r="D59">
-        <v>13438</v>
+        <v>14336</v>
       </c>
       <c r="E59">
         <v>103095</v>
@@ -6961,10 +6970,10 @@
         <v>15000</v>
       </c>
       <c r="G59">
-        <v>2398</v>
+        <v>2509</v>
       </c>
       <c r="I59">
-        <v>1040</v>
+        <v>1085</v>
       </c>
       <c r="N59" t="s">
         <v>39</v>
@@ -6973,46 +6982,46 @@
         <v>85</v>
       </c>
       <c r="P59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R59">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="T59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U59" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V59">
-        <v>1412</v>
+        <v>898</v>
       </c>
       <c r="W59">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>131533</v>
+        <v>132431</v>
       </c>
       <c r="Y59">
-        <v>116533</v>
+        <v>117431</v>
       </c>
       <c r="Z59">
-        <v>2833</v>
+        <v>898</v>
       </c>
       <c r="AA59">
-        <v>116533</v>
+        <v>117431</v>
       </c>
       <c r="AB59">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="AC59">
         <v>0</v>
       </c>
       <c r="AD59" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AE59">
         <v>0</v>
@@ -7030,39 +7039,39 @@
         <v>0</v>
       </c>
       <c r="AK59">
-        <v>0.0237386515850573</v>
+        <v>0.02392578125</v>
       </c>
       <c r="AL59">
-        <v>0.4984115778326862</v>
+        <v>1</v>
       </c>
       <c r="AM59">
-        <v>1412</v>
+        <v>898</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="1">
-        <v>3298</v>
+        <v>3253</v>
       </c>
       <c r="B60" s="2">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="C60" t="s">
         <v>38</v>
       </c>
       <c r="D60">
-        <v>12026</v>
+        <v>13438</v>
       </c>
       <c r="E60">
-        <v>101674</v>
+        <v>103095</v>
       </c>
       <c r="F60">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G60">
-        <v>2300</v>
+        <v>2398</v>
       </c>
       <c r="I60">
-        <v>1008</v>
+        <v>1040</v>
       </c>
       <c r="N60" t="s">
         <v>39</v>
@@ -7071,46 +7080,46 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R60">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="T60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U60" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V60">
-        <v>1325</v>
+        <v>1412</v>
       </c>
       <c r="W60">
-        <v>77075</v>
+        <v>1421</v>
       </c>
       <c r="X60">
-        <v>126700</v>
+        <v>131533</v>
       </c>
       <c r="Y60">
-        <v>113700</v>
+        <v>116533</v>
       </c>
       <c r="Z60">
-        <v>78400</v>
+        <v>2833</v>
       </c>
       <c r="AA60">
-        <v>113700</v>
+        <v>116533</v>
       </c>
       <c r="AB60">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC60">
         <v>0</v>
       </c>
       <c r="AD60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -7128,87 +7137,87 @@
         <v>0</v>
       </c>
       <c r="AK60">
-        <v>0.02295027440545485</v>
+        <v>0.0237386515850573</v>
       </c>
       <c r="AL60">
-        <v>0.01690051020408163</v>
+        <v>0.4984115778326862</v>
       </c>
       <c r="AM60">
-        <v>1325</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="1">
-        <v>3354</v>
+        <v>3309</v>
       </c>
       <c r="B61" s="2">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="C61" t="s">
         <v>38</v>
       </c>
       <c r="D61">
-        <v>10701</v>
+        <v>12026</v>
       </c>
       <c r="E61">
-        <v>24599</v>
+        <v>101674</v>
       </c>
       <c r="F61">
-        <v>59500</v>
+        <v>13000</v>
       </c>
       <c r="G61">
-        <v>2188</v>
+        <v>2300</v>
       </c>
       <c r="I61">
-        <v>901</v>
+        <v>1008</v>
       </c>
       <c r="N61" t="s">
         <v>39</v>
       </c>
       <c r="O61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R61">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="T61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U61" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V61">
-        <v>1510</v>
+        <v>1325</v>
       </c>
       <c r="W61">
-        <v>790</v>
+        <v>77075</v>
       </c>
       <c r="X61">
-        <v>94800</v>
+        <v>126700</v>
       </c>
       <c r="Y61">
-        <v>35300</v>
+        <v>113700</v>
       </c>
       <c r="Z61">
-        <v>2300</v>
+        <v>78400</v>
       </c>
       <c r="AA61">
-        <v>35300</v>
+        <v>113700</v>
       </c>
       <c r="AB61">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AC61">
         <v>0</v>
       </c>
       <c r="AD61" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AE61">
         <v>0</v>
@@ -7226,87 +7235,87 @@
         <v>0</v>
       </c>
       <c r="AK61">
-        <v>0.02214746285393888</v>
+        <v>0.02295027440545485</v>
       </c>
       <c r="AL61">
-        <v>0.6565217391304348</v>
+        <v>0.01690051020408163</v>
       </c>
       <c r="AM61">
-        <v>1510</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="1">
-        <v>3410</v>
+        <v>3365</v>
       </c>
       <c r="B62" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="C62" t="s">
         <v>38</v>
       </c>
       <c r="D62">
-        <v>9191</v>
+        <v>10701</v>
       </c>
       <c r="E62">
-        <v>23809</v>
+        <v>24599</v>
       </c>
       <c r="F62">
         <v>59500</v>
       </c>
       <c r="G62">
-        <v>1922</v>
+        <v>2188</v>
       </c>
       <c r="I62">
-        <v>816</v>
+        <v>901</v>
       </c>
       <c r="N62" t="s">
         <v>39</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R62">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="T62" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="U62" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V62">
-        <v>1036</v>
+        <v>1510</v>
       </c>
       <c r="W62">
-        <v>2037</v>
+        <v>790</v>
       </c>
       <c r="X62">
-        <v>92500</v>
+        <v>94800</v>
       </c>
       <c r="Y62">
-        <v>33000</v>
+        <v>35300</v>
       </c>
       <c r="Z62">
-        <v>3073</v>
+        <v>2300</v>
       </c>
       <c r="AA62">
-        <v>33000</v>
+        <v>35300</v>
       </c>
       <c r="AB62">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC62">
         <v>0</v>
       </c>
       <c r="AD62" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AE62">
         <v>0</v>
@@ -7324,39 +7333,39 @@
         <v>0</v>
       </c>
       <c r="AK62">
-        <v>0.02208682406702209</v>
+        <v>0.02214746285393888</v>
       </c>
       <c r="AL62">
-        <v>0.337129840546697</v>
+        <v>0.6565217391304348</v>
       </c>
       <c r="AM62">
-        <v>1036</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="1">
-        <v>3466</v>
+        <v>3421</v>
       </c>
       <c r="B63" s="2">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="C63" t="s">
         <v>38</v>
       </c>
       <c r="D63">
-        <v>8155</v>
+        <v>9191</v>
       </c>
       <c r="E63">
-        <v>21772</v>
+        <v>23809</v>
       </c>
       <c r="F63">
-        <v>57400</v>
+        <v>59500</v>
       </c>
       <c r="G63">
-        <v>1855</v>
+        <v>1922</v>
       </c>
       <c r="I63">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="N63" t="s">
         <v>39</v>
@@ -7365,46 +7374,46 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R63">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="T63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U63" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V63">
-        <v>673</v>
+        <v>1036</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="X63">
-        <v>87327</v>
+        <v>92500</v>
       </c>
       <c r="Y63">
-        <v>29927</v>
+        <v>33000</v>
       </c>
       <c r="Z63">
-        <v>673</v>
+        <v>3073</v>
       </c>
       <c r="AA63">
-        <v>29927</v>
+        <v>33000</v>
       </c>
       <c r="AB63">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AC63">
         <v>0</v>
       </c>
       <c r="AD63" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -7422,27 +7431,27 @@
         <v>0</v>
       </c>
       <c r="AK63">
-        <v>0.02096873083997548</v>
+        <v>0.02208682406702209</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0.337129840546697</v>
       </c>
       <c r="AM63">
-        <v>673</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="1">
-        <v>3522</v>
+        <v>3477</v>
       </c>
       <c r="B64" s="2">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="C64" t="s">
         <v>38</v>
       </c>
       <c r="D64">
-        <v>7482</v>
+        <v>8155</v>
       </c>
       <c r="E64">
         <v>21772</v>
@@ -7451,10 +7460,10 @@
         <v>57400</v>
       </c>
       <c r="G64">
-        <v>1617</v>
+        <v>1855</v>
       </c>
       <c r="I64">
-        <v>657</v>
+        <v>774</v>
       </c>
       <c r="N64" t="s">
         <v>39</v>
@@ -7463,46 +7472,46 @@
         <v>88</v>
       </c>
       <c r="P64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R64">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="T64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U64" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V64">
-        <v>1035</v>
+        <v>673</v>
       </c>
       <c r="W64">
-        <v>1223</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>86654</v>
+        <v>87327</v>
       </c>
       <c r="Y64">
-        <v>29254</v>
+        <v>29927</v>
       </c>
       <c r="Z64">
-        <v>2258</v>
+        <v>673</v>
       </c>
       <c r="AA64">
-        <v>29254</v>
+        <v>29927</v>
       </c>
       <c r="AB64">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC64">
         <v>0</v>
       </c>
       <c r="AD64" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -7520,39 +7529,39 @@
         <v>0</v>
       </c>
       <c r="AK64">
-        <v>0.02044907778668805</v>
+        <v>0.02096873083997548</v>
       </c>
       <c r="AL64">
-        <v>0.45837023914969</v>
+        <v>1</v>
       </c>
       <c r="AM64">
-        <v>1035</v>
+        <v>673</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="1">
-        <v>3578</v>
+        <v>3533</v>
       </c>
       <c r="B65" s="2">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
       <c r="D65">
-        <v>6447</v>
+        <v>7482</v>
       </c>
       <c r="E65">
-        <v>20549</v>
+        <v>21772</v>
       </c>
       <c r="F65">
-        <v>64400</v>
+        <v>57400</v>
       </c>
       <c r="G65">
-        <v>1432</v>
+        <v>1617</v>
       </c>
       <c r="I65">
-        <v>597</v>
+        <v>657</v>
       </c>
       <c r="N65" t="s">
         <v>39</v>
@@ -7561,46 +7570,46 @@
         <v>89</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R65">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="T65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U65" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V65">
-        <v>739</v>
+        <v>1035</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="X65">
-        <v>91396</v>
+        <v>86654</v>
       </c>
       <c r="Y65">
-        <v>26996</v>
+        <v>29254</v>
       </c>
       <c r="Z65">
-        <v>739</v>
+        <v>2258</v>
       </c>
       <c r="AA65">
-        <v>26996</v>
+        <v>29254</v>
       </c>
       <c r="AB65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC65">
         <v>0</v>
       </c>
       <c r="AD65" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AE65">
         <v>0</v>
@@ -7618,27 +7627,27 @@
         <v>0</v>
       </c>
       <c r="AK65">
-        <v>0.02062975027144408</v>
+        <v>0.02044907778668805</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0.45837023914969</v>
       </c>
       <c r="AM65">
-        <v>739</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="1">
-        <v>3634</v>
+        <v>3589</v>
       </c>
       <c r="B66" s="2">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
       </c>
       <c r="D66">
-        <v>5708</v>
+        <v>6447</v>
       </c>
       <c r="E66">
         <v>20549</v>
@@ -7647,10 +7656,10 @@
         <v>64400</v>
       </c>
       <c r="G66">
-        <v>1034</v>
+        <v>1432</v>
       </c>
       <c r="I66">
-        <v>410</v>
+        <v>597</v>
       </c>
       <c r="N66" t="s">
         <v>39</v>
@@ -7659,46 +7668,46 @@
         <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R66">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="T66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U66" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V66">
-        <v>1065</v>
+        <v>739</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>90657</v>
+        <v>91396</v>
       </c>
       <c r="Y66">
-        <v>26257</v>
+        <v>26996</v>
       </c>
       <c r="Z66">
-        <v>1065</v>
+        <v>739</v>
       </c>
       <c r="AA66">
-        <v>26257</v>
+        <v>26996</v>
       </c>
       <c r="AB66">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AC66">
         <v>0</v>
       </c>
       <c r="AD66" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AE66">
         <v>0</v>
@@ -7716,27 +7725,27 @@
         <v>0</v>
       </c>
       <c r="AK66">
-        <v>0.02154870357393132</v>
+        <v>0.02062975027144408</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
-        <v>1065</v>
+        <v>739</v>
       </c>
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="1">
-        <v>3690</v>
+        <v>3645</v>
       </c>
       <c r="B67" s="2">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="C67" t="s">
         <v>38</v>
       </c>
       <c r="D67">
-        <v>4643</v>
+        <v>5708</v>
       </c>
       <c r="E67">
         <v>20549</v>
@@ -7757,46 +7766,46 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R67">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="T67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V67">
-        <v>764</v>
+        <v>1065</v>
       </c>
       <c r="W67">
-        <v>3169</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>89592</v>
+        <v>90657</v>
       </c>
       <c r="Y67">
-        <v>25192</v>
+        <v>26257</v>
       </c>
       <c r="Z67">
-        <v>3933</v>
+        <v>1065</v>
       </c>
       <c r="AA67">
-        <v>25192</v>
+        <v>26257</v>
       </c>
       <c r="AB67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC67">
         <v>0</v>
       </c>
       <c r="AD67" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -7814,39 +7823,39 @@
         <v>0</v>
       </c>
       <c r="AK67">
-        <v>0.02175317682532845</v>
+        <v>0.02154870357393132</v>
       </c>
       <c r="AL67">
-        <v>0.1942537503178235</v>
+        <v>1</v>
       </c>
       <c r="AM67">
-        <v>764</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="1">
-        <v>3746</v>
+        <v>3701</v>
       </c>
       <c r="B68" s="2">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68">
-        <v>3879</v>
+        <v>4643</v>
       </c>
       <c r="E68">
-        <v>17380</v>
+        <v>20549</v>
       </c>
       <c r="F68">
-        <v>57400</v>
+        <v>64400</v>
       </c>
       <c r="G68">
-        <v>746</v>
+        <v>1034</v>
       </c>
       <c r="I68">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="N68" t="s">
         <v>39</v>
@@ -7855,46 +7864,46 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R68">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="T68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U68" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V68">
-        <v>873</v>
+        <v>764</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>3169</v>
       </c>
       <c r="X68">
-        <v>78659</v>
+        <v>89592</v>
       </c>
       <c r="Y68">
-        <v>21259</v>
+        <v>25192</v>
       </c>
       <c r="Z68">
-        <v>873</v>
+        <v>3933</v>
       </c>
       <c r="AA68">
-        <v>21259</v>
+        <v>25192</v>
       </c>
       <c r="AB68">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC68">
         <v>0</v>
       </c>
       <c r="AD68" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -7912,27 +7921,27 @@
         <v>0</v>
       </c>
       <c r="AK68">
-        <v>0.02010827532869296</v>
+        <v>0.02175317682532845</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0.1942537503178235</v>
       </c>
       <c r="AM68">
-        <v>873</v>
+        <v>764</v>
       </c>
     </row>
     <row r="69" spans="1:39">
       <c r="A69" s="1">
-        <v>3802</v>
+        <v>3757</v>
       </c>
       <c r="B69" s="2">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69">
-        <v>3006</v>
+        <v>3879</v>
       </c>
       <c r="E69">
         <v>17380</v>
@@ -7940,6 +7949,12 @@
       <c r="F69">
         <v>57400</v>
       </c>
+      <c r="G69">
+        <v>746</v>
+      </c>
+      <c r="I69">
+        <v>200</v>
+      </c>
       <c r="N69" t="s">
         <v>39</v>
       </c>
@@ -7947,46 +7962,46 @@
         <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R69">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="T69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U69" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V69">
-        <v>651</v>
+        <v>873</v>
       </c>
       <c r="W69">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>77786</v>
+        <v>78659</v>
       </c>
       <c r="Y69">
-        <v>20386</v>
+        <v>21259</v>
       </c>
       <c r="Z69">
-        <v>2110</v>
+        <v>873</v>
       </c>
       <c r="AA69">
-        <v>20386</v>
+        <v>21259</v>
       </c>
       <c r="AB69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC69">
         <v>0</v>
       </c>
       <c r="AD69" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -8004,33 +8019,33 @@
         <v>0</v>
       </c>
       <c r="AK69">
-        <v>0.02162341982701264</v>
+        <v>0.02010827532869296</v>
       </c>
       <c r="AL69">
-        <v>0.3085308056872038</v>
+        <v>1</v>
       </c>
       <c r="AM69">
-        <v>651</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="1">
-        <v>3858</v>
+        <v>3813</v>
       </c>
       <c r="B70" s="2">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="D70">
-        <v>2355</v>
+        <v>3006</v>
       </c>
       <c r="E70">
-        <v>15921</v>
+        <v>17380</v>
       </c>
       <c r="F70">
-        <v>48600</v>
+        <v>57400</v>
       </c>
       <c r="N70" t="s">
         <v>39</v>
@@ -8039,46 +8054,46 @@
         <v>94</v>
       </c>
       <c r="P70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R70">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="T70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U70" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V70">
-        <v>253</v>
+        <v>651</v>
       </c>
       <c r="W70">
-        <v>2469</v>
+        <v>1459</v>
       </c>
       <c r="X70">
-        <v>66876</v>
+        <v>77786</v>
       </c>
       <c r="Y70">
-        <v>18276</v>
+        <v>20386</v>
       </c>
       <c r="Z70">
-        <v>2722</v>
+        <v>2110</v>
       </c>
       <c r="AA70">
-        <v>18276</v>
+        <v>20386</v>
       </c>
       <c r="AB70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC70">
         <v>0</v>
       </c>
       <c r="AD70" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AE70">
         <v>0</v>
@@ -8096,72 +8111,72 @@
         <v>0</v>
       </c>
       <c r="AK70">
-        <v>0.02250530785562633</v>
+        <v>0.02162341982701264</v>
       </c>
       <c r="AL70">
-        <v>0.09294636296840558</v>
+        <v>0.3085308056872038</v>
       </c>
       <c r="AM70">
-        <v>253</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="A71" s="1">
-        <v>3914</v>
+        <v>3869</v>
       </c>
       <c r="B71" s="2">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71">
-        <v>2102</v>
+        <v>2355</v>
       </c>
       <c r="E71">
-        <v>13452</v>
+        <v>15921</v>
       </c>
       <c r="F71">
-        <v>12100</v>
+        <v>48600</v>
       </c>
       <c r="N71" t="s">
         <v>39</v>
       </c>
       <c r="O71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R71">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="T71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="U71" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V71">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="W71">
-        <v>885</v>
+        <v>2469</v>
       </c>
       <c r="X71">
-        <v>27654</v>
+        <v>66876</v>
       </c>
       <c r="Y71">
-        <v>15554</v>
+        <v>18276</v>
       </c>
       <c r="Z71">
-        <v>1254</v>
+        <v>2722</v>
       </c>
       <c r="AA71">
-        <v>15554</v>
+        <v>18276</v>
       </c>
       <c r="AB71">
         <v>13</v>
@@ -8170,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="AD71" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AE71">
         <v>0</v>
@@ -8188,30 +8203,30 @@
         <v>0</v>
       </c>
       <c r="AK71">
-        <v>0.01902949571836346</v>
+        <v>0.02250530785562633</v>
       </c>
       <c r="AL71">
-        <v>0.2942583732057416</v>
+        <v>0.09294636296840558</v>
       </c>
       <c r="AM71">
-        <v>369</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="A72" s="1">
-        <v>3970</v>
+        <v>3925</v>
       </c>
       <c r="B72" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
       </c>
       <c r="D72">
-        <v>1733</v>
+        <v>2102</v>
       </c>
       <c r="E72">
-        <v>12567</v>
+        <v>13452</v>
       </c>
       <c r="F72">
         <v>12100</v>
@@ -8223,46 +8238,46 @@
         <v>95</v>
       </c>
       <c r="P72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R72">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="T72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V72">
-        <v>197</v>
+        <v>369</v>
       </c>
       <c r="W72">
-        <v>1263</v>
+        <v>885</v>
       </c>
       <c r="X72">
-        <v>26400</v>
+        <v>27654</v>
       </c>
       <c r="Y72">
-        <v>14300</v>
+        <v>15554</v>
       </c>
       <c r="Z72">
-        <v>1460</v>
+        <v>1254</v>
       </c>
       <c r="AA72">
-        <v>14300</v>
+        <v>15554</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC72">
         <v>0</v>
       </c>
       <c r="AD72" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AE72">
         <v>0</v>
@@ -8280,75 +8295,81 @@
         <v>0</v>
       </c>
       <c r="AK72">
-        <v>0.0155799192152337</v>
+        <v>0.01902949571836346</v>
       </c>
       <c r="AL72">
-        <v>0.1349315068493151</v>
+        <v>0.2942583732057416</v>
       </c>
       <c r="AM72">
-        <v>197</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:39">
       <c r="A73" s="1">
-        <v>4026</v>
+        <v>3981</v>
       </c>
       <c r="B73" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
       </c>
       <c r="D73">
-        <v>1536</v>
+        <v>1733</v>
       </c>
       <c r="E73">
-        <v>11304</v>
+        <v>12567</v>
+      </c>
+      <c r="F73">
+        <v>12100</v>
+      </c>
+      <c r="N73" t="s">
+        <v>39</v>
       </c>
       <c r="O73" t="s">
         <v>96</v>
       </c>
       <c r="P73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R73">
         <v>27</v>
       </c>
       <c r="T73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U73" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V73">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="W73">
-        <v>55</v>
+        <v>1263</v>
       </c>
       <c r="X73">
-        <v>12840</v>
+        <v>26400</v>
       </c>
       <c r="Y73">
-        <v>12840</v>
+        <v>14300</v>
       </c>
       <c r="Z73">
-        <v>312</v>
+        <v>1460</v>
       </c>
       <c r="AA73">
-        <v>12840</v>
+        <v>14300</v>
       </c>
       <c r="AB73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC73">
         <v>0</v>
       </c>
       <c r="AD73" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AE73">
         <v>0</v>
@@ -8366,75 +8387,75 @@
         <v>0</v>
       </c>
       <c r="AK73">
-        <v>0.017578125</v>
+        <v>0.0155799192152337</v>
       </c>
       <c r="AL73">
-        <v>0.8237179487179487</v>
+        <v>0.1349315068493151</v>
       </c>
       <c r="AM73">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:39">
       <c r="A74" s="1">
-        <v>4082</v>
+        <v>4037</v>
       </c>
       <c r="B74" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74">
-        <v>1279</v>
+        <v>1536</v>
       </c>
       <c r="E74">
-        <v>11249</v>
+        <v>11304</v>
       </c>
       <c r="O74" t="s">
         <v>97</v>
       </c>
       <c r="P74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R74">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U74" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V74">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="W74">
-        <v>825</v>
+        <v>55</v>
       </c>
       <c r="X74">
-        <v>12528</v>
+        <v>12840</v>
       </c>
       <c r="Y74">
-        <v>12528</v>
+        <v>12840</v>
       </c>
       <c r="Z74">
-        <v>1041</v>
+        <v>312</v>
       </c>
       <c r="AA74">
-        <v>12528</v>
+        <v>12840</v>
       </c>
       <c r="AB74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC74">
         <v>0</v>
       </c>
       <c r="AD74" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AE74">
         <v>0</v>
@@ -8452,75 +8473,75 @@
         <v>0</v>
       </c>
       <c r="AK74">
-        <v>0.01876465989053949</v>
+        <v>0.017578125</v>
       </c>
       <c r="AL74">
-        <v>0.207492795389049</v>
+        <v>0.8237179487179487</v>
       </c>
       <c r="AM74">
-        <v>216</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:39">
       <c r="A75" s="1">
-        <v>4138</v>
+        <v>4093</v>
       </c>
       <c r="B75" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="C75" t="s">
         <v>38</v>
       </c>
       <c r="D75">
-        <v>1063</v>
+        <v>1279</v>
       </c>
       <c r="E75">
-        <v>10424</v>
+        <v>11249</v>
       </c>
       <c r="O75" t="s">
         <v>98</v>
       </c>
       <c r="P75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R75">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V75">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="W75">
-        <v>1637</v>
+        <v>825</v>
       </c>
       <c r="X75">
-        <v>11487</v>
+        <v>12528</v>
       </c>
       <c r="Y75">
-        <v>11487</v>
+        <v>12528</v>
       </c>
       <c r="Z75">
-        <v>1776</v>
+        <v>1041</v>
       </c>
       <c r="AA75">
-        <v>11487</v>
+        <v>12528</v>
       </c>
       <c r="AB75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC75">
         <v>0</v>
       </c>
       <c r="AD75" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AE75">
         <v>0</v>
@@ -8538,75 +8559,75 @@
         <v>0</v>
       </c>
       <c r="AK75">
-        <v>0.01881467544684854</v>
+        <v>0.01876465989053949</v>
       </c>
       <c r="AL75">
-        <v>0.07826576576576577</v>
+        <v>0.207492795389049</v>
       </c>
       <c r="AM75">
-        <v>139</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:39">
       <c r="A76" s="1">
-        <v>4194</v>
+        <v>4149</v>
       </c>
       <c r="B76" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
       </c>
       <c r="D76">
-        <v>924</v>
+        <v>1063</v>
       </c>
       <c r="E76">
-        <v>8787</v>
+        <v>10424</v>
       </c>
       <c r="O76" t="s">
         <v>99</v>
       </c>
       <c r="P76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R76">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U76" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V76">
-        <v>313</v>
+        <v>139</v>
       </c>
       <c r="W76">
-        <v>806</v>
+        <v>1637</v>
       </c>
       <c r="X76">
-        <v>9711</v>
+        <v>11487</v>
       </c>
       <c r="Y76">
-        <v>9711</v>
+        <v>11487</v>
       </c>
       <c r="Z76">
-        <v>1119</v>
+        <v>1776</v>
       </c>
       <c r="AA76">
-        <v>9711</v>
+        <v>11487</v>
       </c>
       <c r="AB76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC76">
         <v>0</v>
       </c>
       <c r="AD76" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AE76">
         <v>0</v>
@@ -8624,75 +8645,75 @@
         <v>0</v>
       </c>
       <c r="AK76">
-        <v>0.01948051948051948</v>
+        <v>0.01881467544684854</v>
       </c>
       <c r="AL76">
-        <v>0.2797140303842717</v>
+        <v>0.07826576576576577</v>
       </c>
       <c r="AM76">
-        <v>313</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:39">
       <c r="A77" s="1">
-        <v>4250</v>
+        <v>4205</v>
       </c>
       <c r="B77" s="2">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="C77" t="s">
         <v>38</v>
       </c>
       <c r="D77">
-        <v>611</v>
+        <v>924</v>
       </c>
       <c r="E77">
-        <v>7981</v>
+        <v>8787</v>
       </c>
       <c r="O77" t="s">
         <v>100</v>
       </c>
       <c r="P77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R77">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U77" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V77">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="X77">
-        <v>8592</v>
+        <v>9711</v>
       </c>
       <c r="Y77">
-        <v>8592</v>
+        <v>9711</v>
       </c>
       <c r="Z77">
-        <v>128</v>
+        <v>1119</v>
       </c>
       <c r="AA77">
-        <v>8592</v>
+        <v>9711</v>
       </c>
       <c r="AB77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC77">
         <v>0</v>
       </c>
       <c r="AD77" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AE77">
         <v>0</v>
@@ -8710,27 +8731,27 @@
         <v>0</v>
       </c>
       <c r="AK77">
-        <v>0.02127659574468085</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0.2797140303842717</v>
       </c>
       <c r="AM77">
-        <v>128</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:39">
       <c r="A78" s="1">
-        <v>4306</v>
+        <v>4261</v>
       </c>
       <c r="B78" s="2">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78">
-        <v>483</v>
+        <v>611</v>
       </c>
       <c r="E78">
         <v>7981</v>
@@ -8739,46 +8760,46 @@
         <v>101</v>
       </c>
       <c r="P78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U78" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V78">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
       <c r="X78">
-        <v>8464</v>
+        <v>8592</v>
       </c>
       <c r="Y78">
-        <v>8464</v>
+        <v>8592</v>
       </c>
       <c r="Z78">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AA78">
-        <v>8464</v>
+        <v>8592</v>
       </c>
       <c r="AB78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC78">
         <v>0</v>
       </c>
       <c r="AD78" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AE78">
         <v>0</v>
@@ -8796,27 +8817,27 @@
         <v>0</v>
       </c>
       <c r="AK78">
-        <v>0.02277432712215321</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:39">
       <c r="A79" s="1">
-        <v>4362</v>
+        <v>4317</v>
       </c>
       <c r="B79" s="2">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79">
-        <v>335</v>
+        <v>483</v>
       </c>
       <c r="E79">
         <v>7981</v>
@@ -8825,132 +8846,132 @@
         <v>102</v>
       </c>
       <c r="P79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R79">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U79" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V79">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="W79">
-        <v>7065</v>
+        <v>0</v>
       </c>
       <c r="X79">
-        <v>8316</v>
+        <v>8464</v>
       </c>
       <c r="Y79">
-        <v>8316</v>
+        <v>8464</v>
       </c>
       <c r="Z79">
-        <v>7107</v>
+        <v>148</v>
       </c>
       <c r="AA79">
-        <v>8316</v>
+        <v>8464</v>
       </c>
       <c r="AB79">
+        <v>5</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0.02277432712215321</v>
+      </c>
+      <c r="AL79">
         <v>1</v>
       </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-      <c r="AI79">
-        <v>0</v>
-      </c>
-      <c r="AK79">
-        <v>0.01791044776119403</v>
-      </c>
-      <c r="AL79">
-        <v>0.00590966652596032</v>
-      </c>
       <c r="AM79">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:39">
       <c r="A80" s="1">
-        <v>4414</v>
+        <v>4373</v>
       </c>
       <c r="B80" s="2">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="C80" t="s">
         <v>38</v>
       </c>
       <c r="D80">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="E80">
-        <v>916</v>
+        <v>7981</v>
       </c>
       <c r="O80" t="s">
         <v>103</v>
       </c>
       <c r="P80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q80" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V80">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W80">
-        <v>0</v>
+        <v>7065</v>
       </c>
       <c r="X80">
-        <v>1209</v>
+        <v>8316</v>
       </c>
       <c r="Y80">
-        <v>1209</v>
+        <v>8316</v>
       </c>
       <c r="Z80">
-        <v>41</v>
+        <v>7107</v>
       </c>
       <c r="AA80">
-        <v>1209</v>
+        <v>8316</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>0</v>
       </c>
       <c r="AD80" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AE80">
         <v>0</v>
@@ -8968,27 +8989,27 @@
         <v>0</v>
       </c>
       <c r="AK80">
-        <v>0.01706484641638225</v>
+        <v>0.01791044776119403</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0.00590966652596032</v>
       </c>
       <c r="AM80">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:39">
       <c r="A81" s="1">
-        <v>4465</v>
+        <v>4428</v>
       </c>
       <c r="B81" s="2">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="E81">
         <v>916</v>
@@ -8997,46 +9018,46 @@
         <v>104</v>
       </c>
       <c r="P81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R81">
         <v>5</v>
       </c>
       <c r="T81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U81" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V81">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81">
-        <v>1168</v>
+        <v>1209</v>
       </c>
       <c r="Y81">
-        <v>1168</v>
+        <v>1209</v>
       </c>
       <c r="Z81">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AA81">
-        <v>1168</v>
+        <v>1209</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC81">
         <v>0</v>
       </c>
       <c r="AD81" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AE81">
         <v>0</v>
@@ -9054,27 +9075,27 @@
         <v>0</v>
       </c>
       <c r="AK81">
-        <v>0.01984126984126984</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:39">
       <c r="A82" s="1">
-        <v>4516</v>
+        <v>4479</v>
       </c>
       <c r="B82" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
       </c>
       <c r="D82">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="E82">
         <v>916</v>
@@ -9083,46 +9104,46 @@
         <v>105</v>
       </c>
       <c r="P82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="U82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82">
-        <v>1118</v>
+        <v>1168</v>
       </c>
       <c r="Y82">
-        <v>1118</v>
+        <v>1168</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA82">
-        <v>1118</v>
+        <v>1168</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>0</v>
       </c>
       <c r="AD82" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AE82">
         <v>0</v>
@@ -9140,18 +9161,21 @@
         <v>0</v>
       </c>
       <c r="AK82">
-        <v>0.0198019801980198</v>
+        <v>0.01984126984126984</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
       </c>
       <c r="AM82">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:39">
       <c r="A83" s="1">
-        <v>4567</v>
+        <v>4530</v>
       </c>
       <c r="B83" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
@@ -9163,25 +9187,25 @@
         <v>916</v>
       </c>
       <c r="O83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q83" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="R83">
         <v>4</v>
       </c>
       <c r="T83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="U83" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V83">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W83">
         <v>0</v>
@@ -9193,19 +9217,19 @@
         <v>1118</v>
       </c>
       <c r="Z83">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AA83">
         <v>1118</v>
       </c>
       <c r="AB83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC83">
         <v>0</v>
       </c>
       <c r="AD83" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AE83">
         <v>0</v>
@@ -9225,58 +9249,70 @@
       <c r="AK83">
         <v>0.0198019801980198</v>
       </c>
-      <c r="AL83">
-        <v>1</v>
-      </c>
       <c r="AM83">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:39">
       <c r="A84" s="1">
-        <v>4617</v>
+        <v>4581</v>
       </c>
       <c r="B84" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
       <c r="D84">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="E84">
         <v>916</v>
       </c>
+      <c r="O84" t="s">
+        <v>106</v>
+      </c>
+      <c r="P84" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>240</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s">
+        <v>173</v>
+      </c>
       <c r="U84" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V84">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="W84">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="X84">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="Y84">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="Z84">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AA84">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC84">
         <v>0</v>
       </c>
       <c r="AD84" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AE84">
         <v>0</v>
@@ -9293,49 +9329,52 @@
       <c r="AI84">
         <v>0</v>
       </c>
+      <c r="AK84">
+        <v>0.0198019801980198</v>
+      </c>
       <c r="AL84">
-        <v>0.096</v>
+        <v>1</v>
       </c>
       <c r="AM84">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:39">
       <c r="A85" s="1">
-        <v>4667</v>
+        <v>4632</v>
       </c>
       <c r="B85" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E85">
-        <v>690</v>
+        <v>916</v>
       </c>
       <c r="U85" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V85">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="X85">
-        <v>823</v>
+        <v>1073</v>
       </c>
       <c r="Y85">
-        <v>823</v>
+        <v>1073</v>
       </c>
       <c r="Z85">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="AA85">
-        <v>823</v>
+        <v>1073</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -9344,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="AD85" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AE85">
         <v>0</v>
@@ -9362,48 +9401,48 @@
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0.096</v>
       </c>
       <c r="AM85">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:39">
       <c r="A86" s="1">
-        <v>4717</v>
+        <v>4682</v>
       </c>
       <c r="B86" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
       <c r="D86">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E86">
         <v>690</v>
       </c>
       <c r="U86" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V86">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="W86">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="X86">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="Y86">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="Z86">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="AA86">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="AB86">
         <v>0</v>
@@ -9412,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="AD86" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AE86">
         <v>0</v>
@@ -9430,48 +9469,48 @@
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>0.1023622047244094</v>
+        <v>1</v>
       </c>
       <c r="AM86">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:39">
       <c r="A87" s="1">
-        <v>4767</v>
+        <v>4732</v>
       </c>
       <c r="B87" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="C87" t="s">
         <v>38</v>
       </c>
       <c r="D87">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E87">
-        <v>462</v>
+        <v>690</v>
       </c>
       <c r="U87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V87">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="X87">
-        <v>550</v>
+        <v>804</v>
       </c>
       <c r="Y87">
-        <v>550</v>
+        <v>804</v>
       </c>
       <c r="Z87">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="AA87">
-        <v>550</v>
+        <v>804</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -9480,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="AD87" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AE87">
         <v>0</v>
@@ -9498,48 +9537,48 @@
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="AM87">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:39">
       <c r="A88" s="1">
-        <v>4817</v>
+        <v>4782</v>
       </c>
       <c r="B88" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
       </c>
       <c r="D88">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E88">
         <v>462</v>
       </c>
       <c r="U88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V88">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="Y88">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="Z88">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA88">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="AB88">
         <v>0</v>
@@ -9548,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="AD88" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AE88">
         <v>0</v>
@@ -9569,45 +9608,45 @@
         <v>1</v>
       </c>
       <c r="AM88">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:39">
       <c r="A89" s="1">
-        <v>4854</v>
+        <v>4832</v>
       </c>
       <c r="B89" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="C89" t="s">
         <v>38</v>
       </c>
       <c r="D89">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E89">
         <v>462</v>
       </c>
       <c r="U89" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W89">
         <v>0</v>
       </c>
       <c r="X89">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Y89">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Z89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA89">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -9616,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="AD89" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AE89">
         <v>0</v>
@@ -9637,45 +9676,45 @@
         <v>1</v>
       </c>
       <c r="AM89">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="1">
-        <v>4880</v>
+        <v>4881</v>
       </c>
       <c r="B90" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
       </c>
       <c r="D90">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E90">
         <v>462</v>
       </c>
       <c r="U90" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V90">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W90">
         <v>0</v>
       </c>
       <c r="X90">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Y90">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA90">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -9684,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="AD90" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AE90">
         <v>0</v>
@@ -9701,16 +9740,19 @@
       <c r="AI90">
         <v>0</v>
       </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
       <c r="AM90">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:39">
       <c r="A91" s="1">
-        <v>4895</v>
+        <v>4915</v>
       </c>
       <c r="B91" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
@@ -9722,7 +9764,7 @@
         <v>462</v>
       </c>
       <c r="U91" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -9749,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="AD91" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AE91">
         <v>0</v>
@@ -9767,6 +9809,71 @@
         <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39">
+      <c r="A92" s="1">
+        <v>4939</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92">
+        <v>53</v>
+      </c>
+      <c r="E92">
+        <v>462</v>
+      </c>
+      <c r="U92" t="s">
+        <v>241</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>515</v>
+      </c>
+      <c r="Y92">
+        <v>515</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>515</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
         <v>0</v>
       </c>
     </row>
